--- a/backend/data_ingestion/benchmarks/Fund-Benchmark.xlsx
+++ b/backend/data_ingestion/benchmarks/Fund-Benchmark.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{C8C73469-044F-4266-81BE-DF9E2CCDC080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D1F48BD-3602-479E-B2E3-E39C23E1742E}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Fund_Performance" state="visible" r:id="rId4"/>
+    <sheet name="Fund_Performance" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="307">
   <si>
     <t>Crisil Intelligence</t>
   </si>
@@ -223,48 +227,747 @@
     <t>Union Largecap Fund</t>
   </si>
   <si>
-    <t>WhiteOak Capital Large Cap Fund</t>
-  </si>
-  <si>
-    <t>*For detailed understanding regarding Information Ratio, click on the below link</t>
-  </si>
-  <si>
-    <t>amfiindia.com/otherdata/fund-performance/information-ratio</t>
-  </si>
-  <si>
-    <t>^The AUM figure displayed is the most recent value shared by the AMC</t>
+    <t>360 ONE Flexicap Fund</t>
+  </si>
+  <si>
+    <t>BSE 500 TRI</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Nifty 500 TRI</t>
+  </si>
+  <si>
+    <t>Axis Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Bajaj Finserv Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Bandhan Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Bank of India Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Baroda BNP Paribas Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Capitalmind Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>DSP Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>HDFC Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>HSBC Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Helios Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Flexicap Fund</t>
+  </si>
+  <si>
+    <t>ITI Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>JM Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>JioBlackRock Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Kotak Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Mirae Asset Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>NJ Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Navi Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>PGIM India Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Parag Parikh Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Quant Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>SBI Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Samco Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Shriram Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>TRUSTMF Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Tata Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Taurus Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>The Wealth Company Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>UTI Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Unifi Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Union Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>WhiteOak Capital Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>WhiteOak Large Cap Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Nifty Midcap 150 TRI</t>
+  </si>
+  <si>
+    <t>Axis Midcap Fund</t>
+  </si>
+  <si>
+    <t>Bandhan Midcap Fund</t>
+  </si>
+  <si>
+    <t>BSE Midcap 150 TRI</t>
+  </si>
+  <si>
+    <t>Bank of India Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Baroda BNP Paribas Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>DSP Midcap Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>HDFC Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>HSBC Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Helios Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Midcap Fund</t>
+  </si>
+  <si>
+    <t>ITI Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>JM Midcap Fund</t>
+  </si>
+  <si>
+    <t>Kotak Midcap Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Mid cap Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Mirae Asset Midcap Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Midcap Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Growth Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>PGIM India Midcap Fund</t>
+  </si>
+  <si>
+    <t>Quant Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>SBI Midcap Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Tata Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Taurus Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>UTI Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Union Midcap Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Small cap Fund</t>
+  </si>
+  <si>
+    <t>BSE 250 Smallcap TRI</t>
+  </si>
+  <si>
+    <t>Axis Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Nifty Smallcap 250 TRI</t>
+  </si>
+  <si>
+    <t>Bajaj Finserv Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Bandhan Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Bank of India Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Baroda BNP Paribas Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Small Cap Fund</t>
+  </si>
+  <si>
+    <t>DSP Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Small Cap Fund</t>
+  </si>
+  <si>
+    <t>HDFC Small Cap Fund</t>
+  </si>
+  <si>
+    <t>HSBC Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Helios Small Cap Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Smallcap Fund</t>
+  </si>
+  <si>
+    <t>ITI Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Smallcap Fund</t>
+  </si>
+  <si>
+    <t>JM Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Kotak Small Cap Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Mirae Asset Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Small Cap Fund</t>
+  </si>
+  <si>
+    <t>PGIM India Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Quant Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Quantum Small Cap Fund</t>
+  </si>
+  <si>
+    <t>SBI Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Small Cap Fund</t>
+  </si>
+  <si>
+    <t>TRUSTMF Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Tata Small Cap Fund</t>
+  </si>
+  <si>
+    <t>UTI Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Union Small Cap Fund</t>
+  </si>
+  <si>
+    <t>White Oak Capital Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>NIFTY 500 Multicap 50:25:25 Total Return Index</t>
+  </si>
+  <si>
+    <t>Axis Multicap Fund</t>
+  </si>
+  <si>
+    <t>Bajaj Finserv Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>Bandhan Multicap Fund</t>
+  </si>
+  <si>
+    <t>Bank of India Multicap Fund</t>
+  </si>
+  <si>
+    <t>Baroda BNP Paribas Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>DSP Multicap Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>Groww Multicap Fund</t>
+  </si>
+  <si>
+    <t>HDFC Multicap Fund</t>
+  </si>
+  <si>
+    <t>HSBC Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Multicap Fund</t>
+  </si>
+  <si>
+    <t>ITI Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Multicap Fund</t>
+  </si>
+  <si>
+    <t>Kotak Multicap Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>Mirae Asset Multicap Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Multicap Fund</t>
+  </si>
+  <si>
+    <t>PGIM India Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>Quant Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>SBI Multicap Fund</t>
+  </si>
+  <si>
+    <t>Samco Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>TRUSTMF Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>Tata Multicap Fund</t>
+  </si>
+  <si>
+    <t>UTI Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>Union Multicap Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Value Fund</t>
+  </si>
+  <si>
+    <t>Axis Value Fund</t>
+  </si>
+  <si>
+    <t>Bandhan Value Fund</t>
+  </si>
+  <si>
+    <t>Baroda BNP Paribas Value Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Value Fund</t>
+  </si>
+  <si>
+    <t>Groww Value Fund</t>
+  </si>
+  <si>
+    <t>HDFC Value Fund</t>
+  </si>
+  <si>
+    <t>HSBC Value Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Value Fund</t>
+  </si>
+  <si>
+    <t>ITI Value Fund</t>
+  </si>
+  <si>
+    <t>JM Value Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Value Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Value Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Value Fund</t>
+  </si>
+  <si>
+    <t>Quant Value Fund</t>
+  </si>
+  <si>
+    <t>Quantum Value Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Value Fund</t>
+  </si>
+  <si>
+    <t>Tata Value Fund</t>
+  </si>
+  <si>
+    <t>Templeton India Value Fund</t>
+  </si>
+  <si>
+    <t>UTI Value Fund</t>
+  </si>
+  <si>
+    <t>Union Value Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Axis ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Bajaj Finserv ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Bandhan ELSS Tax saver Fund</t>
+  </si>
+  <si>
+    <t>Bank of India ELSS Tax Saver</t>
+  </si>
+  <si>
+    <t>Baroda BNP Paribas ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>DSP ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss ELSS Tax saver Fund</t>
+  </si>
+  <si>
+    <t>Franklin India ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Groww ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>HDFC ELSS Tax saver</t>
+  </si>
+  <si>
+    <t>HSBC ELSS Tax saver Fund</t>
+  </si>
+  <si>
+    <t>HSBC Tax Saver Equity Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>ITI ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Invesco India ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>JM ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Kotak ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>LIC MF ELSS Tax Saver</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Mirae Asset ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>NJ ELSS Tax Saver Scheme</t>
+  </si>
+  <si>
+    <t>Navi ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Nippon India ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>PGIM India ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Parag Parikh ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Quant ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Quantum ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>SBI ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Samco ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Shriram ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Sundaram ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Tata ELSS Fund</t>
+  </si>
+  <si>
+    <t>Taurus ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>UTI ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>UTI Master Equity Plan Unit Scheme</t>
+  </si>
+  <si>
+    <t>Union ELSS Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Contra Fund</t>
+  </si>
+  <si>
+    <t>Kotak Contra Fund</t>
+  </si>
+  <si>
+    <t>SBI Contra Fund</t>
+  </si>
+  <si>
+    <t>White Oak capital ELSS Tax saver Fund</t>
+  </si>
+  <si>
+    <t>360 ONE Focused Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Focused Fund</t>
+  </si>
+  <si>
+    <t>Axis Focused Fund</t>
+  </si>
+  <si>
+    <t>Bandhan Focused Fund</t>
+  </si>
+  <si>
+    <t>Baroda BNP Paribas Focused Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Focused Fund</t>
+  </si>
+  <si>
+    <t>DSP Focused Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Focused Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Focused Equity Fund</t>
+  </si>
+  <si>
+    <t>HDFC Focused Fund</t>
+  </si>
+  <si>
+    <t>HSBC Focused Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Focused Equity Fund</t>
+  </si>
+  <si>
+    <t>ITI Focused Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Focused Fund</t>
+  </si>
+  <si>
+    <t>JM Focused Fund</t>
+  </si>
+  <si>
+    <t>Kotak Focused Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Focused Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Focused Fund</t>
+  </si>
+  <si>
+    <t>Mirae Asset Focused Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Focused Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Focused Fund</t>
+  </si>
+  <si>
+    <t>Old Bridge Focused Fund</t>
+  </si>
+  <si>
+    <t>Quant Focused Fund</t>
+  </si>
+  <si>
+    <t>SBI Focused Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Focused Fund</t>
+  </si>
+  <si>
+    <t>Tata Focused Fund</t>
+  </si>
+  <si>
+    <t>UTI Focused Fund</t>
+  </si>
+  <si>
+    <t>Union Focused Fund</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd-mmm-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-    </font>
-    <font>
-      <sz val="11"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -276,7 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0070C0"/>
+        <fgColor rgb="FF0070C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -290,16 +993,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -307,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -330,7 +1033,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,6 +1057,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,35 +1384,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF267"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E235" sqref="E235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="32" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,7 +1512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -812,25 +1529,25 @@
         <v>46006</v>
       </c>
       <c r="F6" s="6">
-        <v>546.94</v>
+        <v>546.94000000000005</v>
       </c>
       <c r="G6" s="6">
-        <v>606.05</v>
+        <v>606.04999999999995</v>
       </c>
       <c r="H6" s="7">
-        <v>4.7930603</v>
+        <v>4.7930602999999996</v>
       </c>
       <c r="I6" s="7">
-        <v>5.4865675</v>
+        <v>5.4865674999999996</v>
       </c>
       <c r="J6" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K6" s="7">
         <v>0.118973047643247</v>
       </c>
       <c r="L6" s="7">
-        <v>0.4628543084690386</v>
+        <v>0.46285430846903858</v>
       </c>
       <c r="M6" s="7">
         <v>15.010043</v>
@@ -839,34 +1556,34 @@
         <v>15.778162</v>
       </c>
       <c r="O6" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P6" s="7">
-        <v>0.4752824083036269</v>
+        <v>0.47528240830362689</v>
       </c>
       <c r="Q6" s="7">
-        <v>0.8045076794182476</v>
+        <v>0.80450767941824763</v>
       </c>
       <c r="R6" s="7">
-        <v>16.173536</v>
+        <v>16.173535999999999</v>
       </c>
       <c r="S6" s="7">
         <v>16.95074</v>
       </c>
       <c r="T6" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U6" s="7">
         <v>0.240989949857911</v>
       </c>
       <c r="V6" s="7">
-        <v>0.540942887407683</v>
+        <v>0.54094288740768304</v>
       </c>
       <c r="W6" s="7">
         <v>13.490648</v>
       </c>
       <c r="X6" s="7">
-        <v>14.375155</v>
+        <v>14.375154999999999</v>
       </c>
       <c r="Y6" s="7">
         <v>14.345195</v>
@@ -875,7 +1592,7 @@
         <v>-0.3369909659945669</v>
       </c>
       <c r="AA6" s="7">
-        <v>-0.03030090046182526</v>
+        <v>-3.0300900461825261E-2</v>
       </c>
       <c r="AB6" s="7">
         <v>18.729599</v>
@@ -885,13 +1602,13 @@
       </c>
       <c r="AD6" s="8"/>
       <c r="AE6" s="7">
-        <v>13.632025</v>
+        <v>13.632025000000001</v>
       </c>
       <c r="AF6" s="7">
         <v>31348.9</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
@@ -914,13 +1631,13 @@
         <v>71.37</v>
       </c>
       <c r="H7" s="7">
-        <v>2.018531</v>
+        <v>2.0185309999999999</v>
       </c>
       <c r="I7" s="7">
         <v>2.911419</v>
       </c>
       <c r="J7" s="7">
-        <v>4.9519315</v>
+        <v>4.9519314999999997</v>
       </c>
       <c r="K7" s="7">
         <v>-1.088518746238033</v>
@@ -932,16 +1649,16 @@
         <v>11.634216</v>
       </c>
       <c r="N7" s="7">
-        <v>12.641863</v>
+        <v>12.641863000000001</v>
       </c>
       <c r="O7" s="7">
         <v>14.65863</v>
       </c>
       <c r="P7" s="7">
-        <v>-0.9150255535508388</v>
+        <v>-0.91502555355083881</v>
       </c>
       <c r="Q7" s="7">
-        <v>-0.6210457656920017</v>
+        <v>-0.62104576569200165</v>
       </c>
       <c r="R7" s="7">
         <v>10.844965</v>
@@ -950,19 +1667,19 @@
         <v>11.963915</v>
       </c>
       <c r="T7" s="7">
-        <v>16.22205</v>
+        <v>16.222049999999999</v>
       </c>
       <c r="U7" s="7">
-        <v>-1.406038639988131</v>
+        <v>-1.4060386399881311</v>
       </c>
       <c r="V7" s="7">
-        <v>-1.115661444125363</v>
+        <v>-1.1156614441253629</v>
       </c>
       <c r="W7" s="7">
         <v>12.88039</v>
       </c>
       <c r="X7" s="7">
-        <v>14.137671</v>
+        <v>14.137670999999999</v>
       </c>
       <c r="Y7" s="7">
         <v>14.765972</v>
@@ -971,7 +1688,7 @@
         <v>-0.4298185181500212</v>
       </c>
       <c r="AA7" s="7">
-        <v>-0.1796535518547726</v>
+        <v>-0.17965355185477261</v>
       </c>
       <c r="AB7" s="7">
         <v>12.097085</v>
@@ -989,7 +1706,7 @@
         <v>33663.29</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -1006,25 +1723,25 @@
         <v>46006</v>
       </c>
       <c r="F8" s="6">
-        <v>10.319</v>
+        <v>10.319000000000001</v>
       </c>
       <c r="G8" s="6">
-        <v>10.524</v>
+        <v>10.523999999999999</v>
       </c>
       <c r="H8" s="7">
-        <v>2.9062467</v>
+        <v>2.9062467000000001</v>
       </c>
       <c r="I8" s="7">
-        <v>4.431759</v>
+        <v>4.4317589999999996</v>
       </c>
       <c r="J8" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K8" s="7">
         <v>-0.5532885211784645</v>
       </c>
       <c r="L8" s="7">
-        <v>-0.03098403743757173</v>
+        <v>-3.0984037437571731E-2</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -1045,7 +1762,7 @@
         <v>1.9172757</v>
       </c>
       <c r="AC8" s="7">
-        <v>3.448668</v>
+        <v>3.4486680000000001</v>
       </c>
       <c r="AD8" s="7">
         <v>2.9431965</v>
@@ -1057,7 +1774,7 @@
         <v>1635.73</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -1080,55 +1797,55 @@
         <v>92.46</v>
       </c>
       <c r="H9" s="7">
-        <v>4.239354</v>
+        <v>4.2393539999999996</v>
       </c>
       <c r="I9" s="7">
-        <v>5.445063</v>
+        <v>5.4450630000000002</v>
       </c>
       <c r="J9" s="7">
-        <v>4.9519315</v>
+        <v>4.9519314999999997</v>
       </c>
       <c r="K9" s="7">
-        <v>-0.2190110469116242</v>
+        <v>-0.21901104691162421</v>
       </c>
       <c r="L9" s="7">
-        <v>0.1948543586834738</v>
+        <v>0.19485435868347381</v>
       </c>
       <c r="M9" s="7">
         <v>16.789825</v>
       </c>
       <c r="N9" s="7">
-        <v>18.17553</v>
+        <v>18.175529999999998</v>
       </c>
       <c r="O9" s="7">
         <v>14.65863</v>
       </c>
       <c r="P9" s="7">
-        <v>0.5891808811713938</v>
+        <v>0.58918088117139378</v>
       </c>
       <c r="Q9" s="7">
-        <v>0.9727954787040692</v>
+        <v>0.97279547870406924</v>
       </c>
       <c r="R9" s="7">
         <v>15.753252</v>
       </c>
       <c r="S9" s="7">
-        <v>17.15815</v>
+        <v>17.158149999999999</v>
       </c>
       <c r="T9" s="7">
-        <v>16.22205</v>
+        <v>16.222049999999999</v>
       </c>
       <c r="U9" s="7">
         <v>-0.1405811334475725</v>
       </c>
       <c r="V9" s="7">
-        <v>0.2581473981965188</v>
+        <v>0.25814739819651877</v>
       </c>
       <c r="W9" s="7">
         <v>13.778084</v>
       </c>
       <c r="X9" s="7">
-        <v>15.128718</v>
+        <v>15.128717999999999</v>
       </c>
       <c r="Y9" s="7">
         <v>14.765972</v>
@@ -1137,13 +1854,13 @@
         <v>-0.2810574024225429</v>
       </c>
       <c r="AA9" s="7">
-        <v>0.0648834342170839</v>
+        <v>6.4883434217083896E-2</v>
       </c>
       <c r="AB9" s="7">
         <v>11.24269</v>
       </c>
       <c r="AC9" s="7">
-        <v>13.79892</v>
+        <v>13.798920000000001</v>
       </c>
       <c r="AD9" s="8"/>
       <c r="AE9" s="7">
@@ -1153,7 +1870,7 @@
         <v>2040.52</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -1173,22 +1890,22 @@
         <v>16.45</v>
       </c>
       <c r="G10" s="6">
-        <v>17.42</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H10" s="7">
-        <v>-1.1356399</v>
+        <v>-1.1356398999999999</v>
       </c>
       <c r="I10" s="7">
-        <v>0.3437354</v>
+        <v>0.34373540000000002</v>
       </c>
       <c r="J10" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K10" s="7">
-        <v>-1.014999648359581</v>
+        <v>-1.0149996483595809</v>
       </c>
       <c r="L10" s="7">
-        <v>-0.726803762650313</v>
+        <v>-0.72680376265031299</v>
       </c>
       <c r="M10" s="7">
         <v>14.619973</v>
@@ -1197,13 +1914,13 @@
         <v>16.019814</v>
       </c>
       <c r="O10" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P10" s="7">
-        <v>0.2070574808106899</v>
+        <v>0.20705748081068989</v>
       </c>
       <c r="Q10" s="7">
-        <v>0.4861421603097072</v>
+        <v>0.48614216030970719</v>
       </c>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -1231,7 +1948,7 @@
         <v>207.07</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -1251,55 +1968,55 @@
         <v>225.75</v>
       </c>
       <c r="G11" s="6">
-        <v>261.6845</v>
+        <v>261.68450000000001</v>
       </c>
       <c r="H11" s="7">
-        <v>0.35293883</v>
+        <v>0.35293882999999998</v>
       </c>
       <c r="I11" s="7">
-        <v>1.5563436</v>
+        <v>1.5563435999999999</v>
       </c>
       <c r="J11" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K11" s="7">
-        <v>-1.577177461389388</v>
+        <v>-1.5771774613893881</v>
       </c>
       <c r="L11" s="7">
         <v>-1.117313031172807</v>
       </c>
       <c r="M11" s="7">
-        <v>15.087703</v>
+        <v>15.087702999999999</v>
       </c>
       <c r="N11" s="7">
         <v>16.456484</v>
       </c>
       <c r="O11" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P11" s="7">
-        <v>0.4260730330856541</v>
+        <v>0.42607303308565408</v>
       </c>
       <c r="Q11" s="7">
-        <v>0.8991236064931706</v>
+        <v>0.89912360649317058</v>
       </c>
       <c r="R11" s="7">
         <v>15.367103</v>
       </c>
       <c r="S11" s="7">
-        <v>16.757635</v>
+        <v>16.757635000000001</v>
       </c>
       <c r="T11" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U11" s="7">
-        <v>-0.05454581599539744</v>
+        <v>-5.4545815995397443E-2</v>
       </c>
       <c r="V11" s="7">
-        <v>0.4184813876315207</v>
+        <v>0.41848138763152071</v>
       </c>
       <c r="W11" s="7">
-        <v>13.348553</v>
+        <v>13.348553000000001</v>
       </c>
       <c r="X11" s="7">
         <v>14.734876</v>
@@ -1308,10 +2025,10 @@
         <v>14.345195</v>
       </c>
       <c r="Z11" s="7">
-        <v>-0.2973271540299184</v>
+        <v>-0.29732715402991838</v>
       </c>
       <c r="AA11" s="7">
-        <v>0.05092726531332441</v>
+        <v>5.0927265313324407E-2</v>
       </c>
       <c r="AB11" s="7">
         <v>15.8048725</v>
@@ -1323,13 +2040,13 @@
         <v>15.28824</v>
       </c>
       <c r="AE11" s="7">
-        <v>13.632025</v>
+        <v>13.632025000000001</v>
       </c>
       <c r="AF11" s="7">
         <v>2742.13</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -1355,13 +2072,13 @@
         <v>2.9747078</v>
       </c>
       <c r="I12" s="7">
-        <v>4.178543</v>
+        <v>4.1785430000000003</v>
       </c>
       <c r="J12" s="7">
-        <v>4.9519315</v>
+        <v>4.9519314999999997</v>
       </c>
       <c r="K12" s="7">
-        <v>-1.163604896106336</v>
+        <v>-1.1636048961063361</v>
       </c>
       <c r="L12" s="7">
         <v>-0.4803380833522724</v>
@@ -1370,64 +2087,64 @@
         <v>14.815811</v>
       </c>
       <c r="N12" s="7">
-        <v>16.200956</v>
+        <v>16.200956000000001</v>
       </c>
       <c r="O12" s="7">
         <v>14.65863</v>
       </c>
       <c r="P12" s="7">
-        <v>0.03035095934323338</v>
+        <v>3.0350959343233379E-2</v>
       </c>
       <c r="Q12" s="7">
-        <v>0.6802399471896889</v>
+        <v>0.68023994718968894</v>
       </c>
       <c r="R12" s="7">
-        <v>14.949996</v>
+        <v>14.949996000000001</v>
       </c>
       <c r="S12" s="7">
-        <v>16.47961</v>
+        <v>16.479610000000001</v>
       </c>
       <c r="T12" s="7">
-        <v>16.22205</v>
+        <v>16.222049999999999</v>
       </c>
       <c r="U12" s="7">
-        <v>-0.5993994690057911</v>
+        <v>-0.59939946900579111</v>
       </c>
       <c r="V12" s="7">
-        <v>0.0557723686809476</v>
+        <v>5.57723686809476E-2</v>
       </c>
       <c r="W12" s="7">
         <v>14.606261</v>
       </c>
       <c r="X12" s="7">
-        <v>16.05618</v>
+        <v>16.056180000000001</v>
       </c>
       <c r="Y12" s="7">
         <v>14.765972</v>
       </c>
       <c r="Z12" s="7">
-        <v>-0.1052144084809186</v>
+        <v>-0.10521440848091861</v>
       </c>
       <c r="AA12" s="7">
-        <v>0.3210333551497072</v>
+        <v>0.32103335514970721</v>
       </c>
       <c r="AB12" s="7">
         <v>12.954749</v>
       </c>
       <c r="AC12" s="7">
-        <v>15.125727</v>
+        <v>15.125726999999999</v>
       </c>
       <c r="AD12" s="7">
-        <v>12.245237</v>
+        <v>12.245236999999999</v>
       </c>
       <c r="AE12" s="7">
         <v>13.808118</v>
       </c>
       <c r="AF12" s="7">
-        <v>17440.51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+        <v>17440.509999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -1447,16 +2164,16 @@
         <v>486.661</v>
       </c>
       <c r="G13" s="6">
-        <v>533.979</v>
+        <v>533.97900000000004</v>
       </c>
       <c r="H13" s="7">
-        <v>4.721235</v>
+        <v>4.7212350000000001</v>
       </c>
       <c r="I13" s="7">
-        <v>5.690657</v>
+        <v>5.6906569999999999</v>
       </c>
       <c r="J13" s="7">
-        <v>4.9519315</v>
+        <v>4.9519314999999997</v>
       </c>
       <c r="K13" s="7">
         <v>-0.1180162213707129</v>
@@ -1465,52 +2182,52 @@
         <v>0.1554230312215116</v>
       </c>
       <c r="M13" s="7">
-        <v>17.573004</v>
+        <v>17.573004000000001</v>
       </c>
       <c r="N13" s="7">
-        <v>18.564709</v>
+        <v>18.564709000000001</v>
       </c>
       <c r="O13" s="7">
         <v>14.65863</v>
       </c>
       <c r="P13" s="7">
-        <v>0.6413635059641424</v>
+        <v>0.64136350596414238</v>
       </c>
       <c r="Q13" s="7">
-        <v>0.8703904520489082</v>
+        <v>0.87039045204890819</v>
       </c>
       <c r="R13" s="7">
-        <v>15.624885</v>
+        <v>15.624885000000001</v>
       </c>
       <c r="S13" s="7">
         <v>16.571966</v>
       </c>
       <c r="T13" s="7">
-        <v>16.22205</v>
+        <v>16.222049999999999</v>
       </c>
       <c r="U13" s="7">
-        <v>-0.1680297688198558</v>
+        <v>-0.16802976881985579</v>
       </c>
       <c r="V13" s="7">
-        <v>0.02993967620054709</v>
+        <v>2.9939676200547091E-2</v>
       </c>
       <c r="W13" s="7">
-        <v>12.553171</v>
+        <v>12.553171000000001</v>
       </c>
       <c r="X13" s="7">
-        <v>13.4153805</v>
+        <v>13.415380499999999</v>
       </c>
       <c r="Y13" s="7">
         <v>14.765972</v>
       </c>
       <c r="Z13" s="7">
-        <v>-0.4436509522426341</v>
+        <v>-0.44365095224263412</v>
       </c>
       <c r="AA13" s="7">
-        <v>-0.2650161126010935</v>
+        <v>-0.26501611260109348</v>
       </c>
       <c r="AB13" s="7">
-        <v>18.591772</v>
+        <v>18.591771999999999</v>
       </c>
       <c r="AC13" s="7">
         <v>12.77054</v>
@@ -1523,7 +2240,7 @@
         <v>7232.54</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
@@ -1546,31 +2263,31 @@
         <v>100.1</v>
       </c>
       <c r="H14" s="7">
-        <v>2.978446</v>
+        <v>2.9784459999999999</v>
       </c>
       <c r="I14" s="7">
-        <v>4.5503507</v>
+        <v>4.5503507000000001</v>
       </c>
       <c r="J14" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K14" s="7">
-        <v>-0.7755888323140074</v>
+        <v>-0.77558883231400744</v>
       </c>
       <c r="L14" s="7">
-        <v>0.01117895348352324</v>
+        <v>1.1178953483523241E-2</v>
       </c>
       <c r="M14" s="7">
         <v>14.66479</v>
       </c>
       <c r="N14" s="7">
-        <v>16.427244</v>
+        <v>16.427244000000002</v>
       </c>
       <c r="O14" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P14" s="7">
-        <v>0.3142503281653788</v>
+        <v>0.31425032816537879</v>
       </c>
       <c r="Q14" s="7">
         <v>1.021283994139087</v>
@@ -1579,19 +2296,19 @@
         <v>15.187099</v>
       </c>
       <c r="S14" s="7">
-        <v>16.947334</v>
+        <v>16.947334000000001</v>
       </c>
       <c r="T14" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U14" s="7">
-        <v>-0.1372869262627623</v>
+        <v>-0.13728692626276229</v>
       </c>
       <c r="V14" s="7">
         <v>0.5375194514299001</v>
       </c>
       <c r="W14" s="7">
-        <v>13.711778</v>
+        <v>13.711778000000001</v>
       </c>
       <c r="X14" s="7">
         <v>15.194644</v>
@@ -1600,10 +2317,10 @@
         <v>14.345195</v>
       </c>
       <c r="Z14" s="7">
-        <v>-0.2494805746555465</v>
+        <v>-0.24948057465554649</v>
       </c>
       <c r="AA14" s="7">
-        <v>0.2118713558231372</v>
+        <v>0.21187135582313721</v>
       </c>
       <c r="AB14" s="7">
         <v>13.907181</v>
@@ -1621,7 +2338,7 @@
         <v>1442.73</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -1644,19 +2361,19 @@
         <v>1188.0678</v>
       </c>
       <c r="H15" s="7">
-        <v>4.576082</v>
+        <v>4.5760820000000004</v>
       </c>
       <c r="I15" s="7">
-        <v>5.355541</v>
+        <v>5.3555409999999997</v>
       </c>
       <c r="J15" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K15" s="7">
-        <v>0.03304921569500108</v>
+        <v>3.3049215695001077E-2</v>
       </c>
       <c r="L15" s="7">
-        <v>0.2956404640137525</v>
+        <v>0.29564046401375249</v>
       </c>
       <c r="M15" s="7">
         <v>14.681127</v>
@@ -1665,31 +2382,31 @@
         <v>15.6278515</v>
       </c>
       <c r="O15" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P15" s="7">
-        <v>0.1922324648519262</v>
+        <v>0.19223246485192619</v>
       </c>
       <c r="Q15" s="7">
-        <v>0.4351098377934123</v>
+        <v>0.43510983779341228</v>
       </c>
       <c r="R15" s="7">
-        <v>15.147863</v>
+        <v>15.147862999999999</v>
       </c>
       <c r="S15" s="7">
-        <v>16.05859</v>
+        <v>16.058589999999999</v>
       </c>
       <c r="T15" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U15" s="7">
-        <v>-0.07391628836353598</v>
+        <v>-7.3916288363535976E-2</v>
       </c>
       <c r="V15" s="7">
         <v>0.1160828675631463</v>
       </c>
       <c r="W15" s="7">
-        <v>12.249052</v>
+        <v>12.249052000000001</v>
       </c>
       <c r="X15" s="7">
         <v>13.159744</v>
@@ -1698,16 +2415,16 @@
         <v>14.345195</v>
       </c>
       <c r="Z15" s="7">
-        <v>-0.3947131349231482</v>
+        <v>-0.39471313492314819</v>
       </c>
       <c r="AA15" s="7">
         <v>-0.2272411436439522</v>
       </c>
       <c r="AB15" s="7">
-        <v>18.89127</v>
+        <v>18.891269999999999</v>
       </c>
       <c r="AC15" s="7">
-        <v>13.193929</v>
+        <v>13.193929000000001</v>
       </c>
       <c r="AD15" s="8"/>
       <c r="AE15" s="7">
@@ -1717,7 +2434,7 @@
         <v>8045.38</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1740,82 +2457,82 @@
         <v>53.45</v>
       </c>
       <c r="H16" s="7">
-        <v>1.8509771</v>
+        <v>1.8509770999999999</v>
       </c>
       <c r="I16" s="7">
-        <v>3.2073286</v>
+        <v>3.2073285999999999</v>
       </c>
       <c r="J16" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K16" s="7">
-        <v>-0.9699299097147898</v>
+        <v>-0.96992990971478976</v>
       </c>
       <c r="L16" s="7">
-        <v>-0.4691835237122047</v>
+        <v>-0.46918352371220468</v>
       </c>
       <c r="M16" s="7">
-        <v>13.212317</v>
+        <v>13.212317000000001</v>
       </c>
       <c r="N16" s="7">
         <v>14.718798</v>
       </c>
       <c r="O16" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P16" s="7">
         <v>-0.1908559142684513</v>
       </c>
       <c r="Q16" s="7">
-        <v>0.2912894411589089</v>
+        <v>0.29128944115890892</v>
       </c>
       <c r="R16" s="7">
-        <v>12.713415</v>
+        <v>12.713414999999999</v>
       </c>
       <c r="S16" s="7">
         <v>14.239884</v>
       </c>
       <c r="T16" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U16" s="7">
-        <v>-0.77506611752834</v>
+        <v>-0.77506611752833998</v>
       </c>
       <c r="V16" s="7">
-        <v>-0.3390088137403561</v>
+        <v>-0.33900881374035607</v>
       </c>
       <c r="W16" s="7">
-        <v>12.03127</v>
+        <v>12.031269999999999</v>
       </c>
       <c r="X16" s="7">
-        <v>13.682467</v>
+        <v>13.682467000000001</v>
       </c>
       <c r="Y16" s="7">
         <v>14.345195</v>
       </c>
       <c r="Z16" s="7">
-        <v>-0.5584956967350397</v>
+        <v>-0.55849569673503974</v>
       </c>
       <c r="AA16" s="7">
-        <v>-0.1607559152175597</v>
+        <v>-0.16075591521755969</v>
       </c>
       <c r="AB16" s="7">
         <v>11.346563</v>
       </c>
       <c r="AC16" s="7">
-        <v>13.134313</v>
+        <v>13.134313000000001</v>
       </c>
       <c r="AD16" s="7">
         <v>13.791611</v>
       </c>
       <c r="AE16" s="7">
-        <v>13.632025</v>
+        <v>13.632025000000001</v>
       </c>
       <c r="AF16" s="7">
-        <v>132.52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+        <v>132.52000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
@@ -1838,70 +2555,70 @@
         <v>1273.53</v>
       </c>
       <c r="H17" s="7">
-        <v>3.031527</v>
+        <v>3.0315270000000001</v>
       </c>
       <c r="I17" s="7">
-        <v>3.6626503</v>
+        <v>3.6626503000000001</v>
       </c>
       <c r="J17" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K17" s="7">
         <v>-0.6645714563827827</v>
       </c>
       <c r="L17" s="7">
-        <v>-0.3830355229871162</v>
+        <v>-0.38303552298711618</v>
       </c>
       <c r="M17" s="7">
-        <v>15.245544</v>
+        <v>15.245544000000001</v>
       </c>
       <c r="N17" s="7">
         <v>15.932015</v>
       </c>
       <c r="O17" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P17" s="7">
-        <v>0.5279097712424733</v>
+        <v>0.52790977124247329</v>
       </c>
       <c r="Q17" s="7">
-        <v>0.7845851745467209</v>
+        <v>0.78458517454672094</v>
       </c>
       <c r="R17" s="7">
         <v>17.6204</v>
       </c>
       <c r="S17" s="7">
-        <v>18.317741</v>
+        <v>18.317741000000002</v>
       </c>
       <c r="T17" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U17" s="7">
-        <v>0.5930021745798904</v>
+        <v>0.59300217457989035</v>
       </c>
       <c r="V17" s="7">
-        <v>0.7825609845482087</v>
+        <v>0.78256098454820866</v>
       </c>
       <c r="W17" s="7">
         <v>14.02745</v>
       </c>
       <c r="X17" s="7">
-        <v>14.750552</v>
+        <v>14.750552000000001</v>
       </c>
       <c r="Y17" s="7">
         <v>14.345195</v>
       </c>
       <c r="Z17" s="7">
-        <v>-0.04071002591254029</v>
+        <v>-4.071002591254029E-2</v>
       </c>
       <c r="AA17" s="7">
         <v>0.1041247523904474</v>
       </c>
       <c r="AB17" s="7">
-        <v>17.731651</v>
+        <v>17.731650999999999</v>
       </c>
       <c r="AC17" s="7">
-        <v>14.156073</v>
+        <v>14.156072999999999</v>
       </c>
       <c r="AD17" s="8"/>
       <c r="AE17" s="7">
@@ -1911,7 +2628,7 @@
         <v>40396.79</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -1928,19 +2645,19 @@
         <v>46006</v>
       </c>
       <c r="F18" s="6">
-        <v>490.5862</v>
+        <v>490.58620000000002</v>
       </c>
       <c r="G18" s="6">
-        <v>546.6947</v>
+        <v>546.69470000000001</v>
       </c>
       <c r="H18" s="7">
-        <v>-0.65197724</v>
+        <v>-0.65197724000000001</v>
       </c>
       <c r="I18" s="7">
-        <v>0.2310274</v>
+        <v>0.23102739999999999</v>
       </c>
       <c r="J18" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K18" s="7">
         <v>-1.919370186508943</v>
@@ -1955,28 +2672,28 @@
         <v>15.302498</v>
       </c>
       <c r="O18" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P18" s="7">
-        <v>0.1580869945824782</v>
+        <v>0.15808699458247821</v>
       </c>
       <c r="Q18" s="7">
-        <v>0.493065513363818</v>
+        <v>0.49306551336381799</v>
       </c>
       <c r="R18" s="7">
-        <v>14.209668</v>
+        <v>14.209668000000001</v>
       </c>
       <c r="S18" s="7">
-        <v>15.273074</v>
+        <v>15.273073999999999</v>
       </c>
       <c r="T18" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U18" s="7">
-        <v>-0.3519256840105893</v>
+        <v>-0.35192568401058932</v>
       </c>
       <c r="V18" s="7">
-        <v>-0.02544571048870466</v>
+        <v>-2.544571048870466E-2</v>
       </c>
       <c r="W18" s="7">
         <v>13.483487</v>
@@ -1988,26 +2705,26 @@
         <v>14.345195</v>
       </c>
       <c r="Z18" s="7">
-        <v>-0.2419092515030616</v>
+        <v>-0.24190925150306161</v>
       </c>
       <c r="AA18" s="7">
-        <v>0.04729200149257923</v>
+        <v>4.7292001492579228E-2</v>
       </c>
       <c r="AB18" s="7">
-        <v>18.416758</v>
+        <v>18.416758000000002</v>
       </c>
       <c r="AC18" s="7">
         <v>13.331873</v>
       </c>
       <c r="AD18" s="8"/>
       <c r="AE18" s="7">
-        <v>13.632025</v>
+        <v>13.632025000000001</v>
       </c>
       <c r="AF18" s="7">
         <v>1914.35</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>51</v>
       </c>
@@ -2030,28 +2747,28 @@
         <v>126.98</v>
       </c>
       <c r="H19" s="7">
-        <v>6.374233</v>
+        <v>6.3742330000000003</v>
       </c>
       <c r="I19" s="7">
-        <v>6.9631524</v>
+        <v>6.9631524000000002</v>
       </c>
       <c r="J19" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K19" s="7">
-        <v>0.7452525848463616</v>
+        <v>0.74525258484636159</v>
       </c>
       <c r="L19" s="7">
-        <v>0.9869338271658639</v>
+        <v>0.98693382716586386</v>
       </c>
       <c r="M19" s="7">
         <v>17.641562</v>
       </c>
       <c r="N19" s="7">
-        <v>18.311398</v>
+        <v>18.311398000000001</v>
       </c>
       <c r="O19" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P19" s="7">
         <v>1.248676387633199</v>
@@ -2060,19 +2777,19 @@
         <v>1.470490226497229</v>
       </c>
       <c r="R19" s="7">
-        <v>18.553524</v>
+        <v>18.553523999999999</v>
       </c>
       <c r="S19" s="7">
-        <v>19.25003</v>
+        <v>19.250029999999999</v>
       </c>
       <c r="T19" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U19" s="7">
-        <v>0.897612808689059</v>
+        <v>0.89761280868905902</v>
       </c>
       <c r="V19" s="7">
-        <v>1.106429763346212</v>
+        <v>1.1064297633462119</v>
       </c>
       <c r="W19" s="7">
         <v>15.296609</v>
@@ -2087,16 +2804,16 @@
         <v>0.2369502591270721</v>
       </c>
       <c r="AA19" s="7">
-        <v>0.4778604840661907</v>
+        <v>0.47786048406619069</v>
       </c>
       <c r="AB19" s="7">
         <v>14.929323</v>
       </c>
       <c r="AC19" s="7">
-        <v>15.998143</v>
+        <v>15.998143000000001</v>
       </c>
       <c r="AD19" s="7">
-        <v>11.656707</v>
+        <v>11.656707000000001</v>
       </c>
       <c r="AE19" s="7">
         <v>13.690201</v>
@@ -2105,7 +2822,7 @@
         <v>78119.98</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -2125,37 +2842,37 @@
         <v>17.9712</v>
       </c>
       <c r="G20" s="6">
-        <v>19.8853</v>
+        <v>19.885300000000001</v>
       </c>
       <c r="H20" s="7">
-        <v>-1.0632704</v>
+        <v>-1.0632703999999999</v>
       </c>
       <c r="I20" s="7">
-        <v>0.7132685</v>
+        <v>0.71326849999999997</v>
       </c>
       <c r="J20" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K20" s="7">
         <v>-1.330915854435281</v>
       </c>
       <c r="L20" s="7">
-        <v>-0.8728208559468658</v>
+        <v>-0.87282085594686576</v>
       </c>
       <c r="M20" s="7">
-        <v>12.922047</v>
+        <v>12.922046999999999</v>
       </c>
       <c r="N20" s="7">
         <v>15.082464</v>
       </c>
       <c r="O20" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P20" s="7">
-        <v>-0.1541161481953703</v>
+        <v>-0.15411614819537031</v>
       </c>
       <c r="Q20" s="7">
-        <v>0.3535040970994772</v>
+        <v>0.35350409709947722</v>
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -2168,7 +2885,7 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="7">
-        <v>12.49665</v>
+        <v>12.496650000000001</v>
       </c>
       <c r="AC20" s="7">
         <v>14.807248</v>
@@ -2183,7 +2900,7 @@
         <v>526.61</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
@@ -2200,88 +2917,88 @@
         <v>46006</v>
       </c>
       <c r="F21" s="6">
-        <v>70.99</v>
+        <v>70.989999999999995</v>
       </c>
       <c r="G21" s="6">
         <v>85.63</v>
       </c>
       <c r="H21" s="7">
-        <v>1.1335171</v>
+        <v>1.1335170999999999</v>
       </c>
       <c r="I21" s="7">
         <v>2.4879935</v>
       </c>
       <c r="J21" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K21" s="7">
-        <v>-0.9417504185692346</v>
+        <v>-0.94175041856923458</v>
       </c>
       <c r="L21" s="7">
-        <v>-0.5357017440279453</v>
+        <v>-0.53570174402794535</v>
       </c>
       <c r="M21" s="7">
-        <v>16.602568</v>
+        <v>16.602568000000002</v>
       </c>
       <c r="N21" s="7">
-        <v>18.22219</v>
+        <v>18.222190000000001</v>
       </c>
       <c r="O21" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P21" s="7">
-        <v>0.7396529778225859</v>
+        <v>0.73965297782258588</v>
       </c>
       <c r="Q21" s="7">
         <v>1.154522352214999</v>
       </c>
       <c r="R21" s="7">
-        <v>16.589165</v>
+        <v>16.589165000000001</v>
       </c>
       <c r="S21" s="7">
-        <v>18.236382</v>
+        <v>18.236381999999999</v>
       </c>
       <c r="T21" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U21" s="7">
-        <v>0.2829131973232883</v>
+        <v>0.28291319732328829</v>
       </c>
       <c r="V21" s="7">
-        <v>0.6864307595930826</v>
+        <v>0.68643075959308264</v>
       </c>
       <c r="W21" s="7">
-        <v>13.522032</v>
+        <v>13.522031999999999</v>
       </c>
       <c r="X21" s="7">
-        <v>15.2375345</v>
+        <v>15.237534500000001</v>
       </c>
       <c r="Y21" s="7">
         <v>14.345195</v>
       </c>
       <c r="Z21" s="7">
-        <v>-0.2059390460699133</v>
+        <v>-0.20593904606991331</v>
       </c>
       <c r="AA21" s="7">
-        <v>0.1854653408119528</v>
+        <v>0.18546534081195279</v>
       </c>
       <c r="AB21" s="7">
-        <v>12.753151</v>
+        <v>12.753151000000001</v>
       </c>
       <c r="AC21" s="7">
-        <v>15.575921</v>
+        <v>15.575920999999999</v>
       </c>
       <c r="AD21" s="7">
         <v>13.011763</v>
       </c>
       <c r="AE21" s="7">
-        <v>13.632025</v>
+        <v>13.632025000000001</v>
       </c>
       <c r="AF21" s="7">
         <v>1707.15</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
@@ -2298,58 +3015,58 @@
         <v>46006</v>
       </c>
       <c r="F22" s="6">
-        <v>158.1657</v>
+        <v>158.16569999999999</v>
       </c>
       <c r="G22" s="6">
-        <v>182.1478</v>
+        <v>182.14779999999999</v>
       </c>
       <c r="H22" s="7">
-        <v>-2.1278825</v>
+        <v>-2.1278825000000001</v>
       </c>
       <c r="I22" s="7">
-        <v>-0.53391147</v>
+        <v>-0.53391147000000005</v>
       </c>
       <c r="J22" s="7">
-        <v>4.9519315</v>
+        <v>4.9519314999999997</v>
       </c>
       <c r="K22" s="7">
-        <v>-2.202925010570734</v>
+        <v>-2.2029250105707341</v>
       </c>
       <c r="L22" s="7">
-        <v>-1.68235228337535</v>
+        <v>-1.6823522833753499</v>
       </c>
       <c r="M22" s="7">
-        <v>14.917412</v>
+        <v>14.917412000000001</v>
       </c>
       <c r="N22" s="7">
-        <v>16.362497</v>
+        <v>16.362497000000001</v>
       </c>
       <c r="O22" s="7">
         <v>14.65863</v>
       </c>
       <c r="P22" s="7">
-        <v>0.09967311909549377</v>
+        <v>9.967311909549377E-2</v>
       </c>
       <c r="Q22" s="7">
-        <v>0.4128579420533099</v>
+        <v>0.41285794205330989</v>
       </c>
       <c r="R22" s="7">
         <v>14.915614</v>
       </c>
       <c r="S22" s="7">
-        <v>16.211359</v>
+        <v>16.211359000000002</v>
       </c>
       <c r="T22" s="7">
-        <v>16.22205</v>
+        <v>16.222049999999999</v>
       </c>
       <c r="U22" s="7">
-        <v>-0.2771066191255455</v>
+        <v>-0.27710661912554552</v>
       </c>
       <c r="V22" s="7">
-        <v>-0.003875750283849112</v>
+        <v>-3.875750283849112E-3</v>
       </c>
       <c r="W22" s="7">
-        <v>11.967237</v>
+        <v>11.967237000000001</v>
       </c>
       <c r="X22" s="7">
         <v>13.262731</v>
@@ -2358,16 +3075,16 @@
         <v>14.765972</v>
       </c>
       <c r="Z22" s="7">
-        <v>-0.4177934326169158</v>
+        <v>-0.41779343261691582</v>
       </c>
       <c r="AA22" s="7">
-        <v>-0.2594172155034752</v>
+        <v>-0.25941721550347518</v>
       </c>
       <c r="AB22" s="7">
-        <v>9.401296</v>
+        <v>9.4012960000000003</v>
       </c>
       <c r="AC22" s="7">
-        <v>13.218056</v>
+        <v>13.218056000000001</v>
       </c>
       <c r="AD22" s="8"/>
       <c r="AE22" s="7">
@@ -2377,7 +3094,7 @@
         <v>474.79</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
@@ -2394,25 +3111,25 @@
         <v>46006</v>
       </c>
       <c r="F23" s="6">
-        <v>592.444</v>
+        <v>592.44399999999996</v>
       </c>
       <c r="G23" s="6">
-        <v>684.588</v>
+        <v>684.58799999999997</v>
       </c>
       <c r="H23" s="7">
-        <v>3.971183</v>
+        <v>3.9711829999999999</v>
       </c>
       <c r="I23" s="7">
-        <v>5.145399</v>
+        <v>5.1453990000000003</v>
       </c>
       <c r="J23" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K23" s="7">
-        <v>-0.2924443842734498</v>
+        <v>-0.29244438427344982</v>
       </c>
       <c r="L23" s="7">
-        <v>0.3622411907886551</v>
+        <v>0.36224119078865508</v>
       </c>
       <c r="M23" s="7">
         <v>14.868547</v>
@@ -2421,59 +3138,59 @@
         <v>16.229239</v>
       </c>
       <c r="O23" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P23" s="7">
-        <v>0.4140631776971325</v>
+        <v>0.41406317769713252</v>
       </c>
       <c r="Q23" s="7">
-        <v>0.987488030816639</v>
+        <v>0.98748803081663905</v>
       </c>
       <c r="R23" s="7">
-        <v>15.784643</v>
+        <v>15.784643000000001</v>
       </c>
       <c r="S23" s="7">
-        <v>17.18528</v>
+        <v>17.185279999999999</v>
       </c>
       <c r="T23" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U23" s="7">
-        <v>0.0891386744652486</v>
+        <v>8.9138674465248605E-2</v>
       </c>
       <c r="V23" s="7">
-        <v>0.6061403137122602</v>
+        <v>0.60614031371226018</v>
       </c>
       <c r="W23" s="7">
         <v>13.585098</v>
       </c>
       <c r="X23" s="7">
-        <v>14.964263</v>
+        <v>14.964263000000001</v>
       </c>
       <c r="Y23" s="7">
         <v>14.345195</v>
       </c>
       <c r="Z23" s="7">
-        <v>-0.3118023125570609</v>
+        <v>-0.31180231255706092</v>
       </c>
       <c r="AA23" s="7">
-        <v>0.1832727905628757</v>
+        <v>0.18327279056287571</v>
       </c>
       <c r="AB23" s="7">
-        <v>16.332289</v>
+        <v>16.332288999999999</v>
       </c>
       <c r="AC23" s="7">
         <v>15.013698</v>
       </c>
       <c r="AD23" s="8"/>
       <c r="AE23" s="7">
-        <v>13.632025</v>
+        <v>13.632025000000001</v>
       </c>
       <c r="AF23" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -2490,25 +3207,25 @@
         <v>46006</v>
       </c>
       <c r="F24" s="6">
-        <v>57.1862</v>
+        <v>57.186199999999999</v>
       </c>
       <c r="G24" s="6">
-        <v>65.2977</v>
+        <v>65.297700000000006</v>
       </c>
       <c r="H24" s="7">
-        <v>1.3205732</v>
+        <v>1.3205731999999999</v>
       </c>
       <c r="I24" s="7">
-        <v>2.4594522</v>
+        <v>2.4594521999999999</v>
       </c>
       <c r="J24" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K24" s="7">
-        <v>-0.8465711801043658</v>
+        <v>-0.84657118010436583</v>
       </c>
       <c r="L24" s="7">
-        <v>-0.5337695929772889</v>
+        <v>-0.53376959297728888</v>
       </c>
       <c r="M24" s="7">
         <v>11.448145</v>
@@ -2517,13 +3234,13 @@
         <v>12.684777</v>
       </c>
       <c r="O24" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P24" s="7">
-        <v>-0.7575810898540221</v>
+        <v>-0.75758108985402206</v>
       </c>
       <c r="Q24" s="7">
-        <v>-0.3603197975139569</v>
+        <v>-0.36031979751395687</v>
       </c>
       <c r="R24" s="7">
         <v>12.143628</v>
@@ -2532,16 +3249,16 @@
         <v>13.49873</v>
       </c>
       <c r="T24" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U24" s="7">
         <v>-1.048460891802407</v>
       </c>
       <c r="V24" s="7">
-        <v>-0.618648987939849</v>
+        <v>-0.61864898793984902</v>
       </c>
       <c r="W24" s="7">
-        <v>11.638034</v>
+        <v>11.638033999999999</v>
       </c>
       <c r="X24" s="7">
         <v>12.897532</v>
@@ -2550,26 +3267,26 @@
         <v>14.345195</v>
       </c>
       <c r="Z24" s="7">
-        <v>-0.7078378002792595</v>
+        <v>-0.70783780027925947</v>
       </c>
       <c r="AA24" s="7">
-        <v>-0.3932908217888659</v>
+        <v>-0.39329082178886587</v>
       </c>
       <c r="AB24" s="7">
-        <v>10.508928</v>
+        <v>10.508927999999999</v>
       </c>
       <c r="AC24" s="7">
         <v>12.945387</v>
       </c>
       <c r="AD24" s="8"/>
       <c r="AE24" s="7">
-        <v>13.632025</v>
+        <v>13.632025000000001</v>
       </c>
       <c r="AF24" s="7">
         <v>1492.48</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>58</v>
       </c>
@@ -2586,40 +3303,40 @@
         <v>46006</v>
       </c>
       <c r="F25" s="6">
-        <v>23.7435</v>
+        <v>23.743500000000001</v>
       </c>
       <c r="G25" s="6">
-        <v>26.8205</v>
+        <v>26.820499999999999</v>
       </c>
       <c r="H25" s="7">
-        <v>3.334016</v>
+        <v>3.3340160000000001</v>
       </c>
       <c r="I25" s="7">
         <v>5.0663114</v>
       </c>
       <c r="J25" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K25" s="7">
-        <v>-0.52809241261314</v>
+        <v>-0.52809241261313999</v>
       </c>
       <c r="L25" s="7">
-        <v>0.221393031305269</v>
+        <v>0.22139303130526899</v>
       </c>
       <c r="M25" s="7">
-        <v>13.473904</v>
+        <v>13.473903999999999</v>
       </c>
       <c r="N25" s="7">
-        <v>15.415256</v>
+        <v>15.415255999999999</v>
       </c>
       <c r="O25" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P25" s="7">
         <v>-0.1552200765734276</v>
       </c>
       <c r="Q25" s="7">
-        <v>0.5897328041184969</v>
+        <v>0.58973280411849693</v>
       </c>
       <c r="R25" s="7">
         <v>15.181041</v>
@@ -2628,13 +3345,13 @@
         <v>17.215916</v>
       </c>
       <c r="T25" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U25" s="7">
-        <v>-0.1117709934689912</v>
+        <v>-0.11177099346899121</v>
       </c>
       <c r="V25" s="7">
-        <v>0.5956921460108249</v>
+        <v>0.59569214601082487</v>
       </c>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
@@ -2642,22 +3359,22 @@
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="7">
-        <v>13.648305</v>
+        <v>13.648305000000001</v>
       </c>
       <c r="AC25" s="7">
-        <v>15.715877</v>
+        <v>15.715877000000001</v>
       </c>
       <c r="AD25" s="7">
-        <v>14.337568</v>
+        <v>14.337567999999999</v>
       </c>
       <c r="AE25" s="7">
-        <v>14.337568</v>
+        <v>14.337567999999999</v>
       </c>
       <c r="AF25" s="7">
         <v>748.74</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>59</v>
       </c>
@@ -2674,22 +3391,22 @@
         <v>46006</v>
       </c>
       <c r="F26" s="6">
-        <v>117.442</v>
+        <v>117.44199999999999</v>
       </c>
       <c r="G26" s="6">
-        <v>132.909</v>
+        <v>132.90899999999999</v>
       </c>
       <c r="H26" s="7">
-        <v>4.6719503</v>
+        <v>4.6719502999999998</v>
       </c>
       <c r="I26" s="7">
-        <v>5.685395</v>
+        <v>5.6853949999999998</v>
       </c>
       <c r="J26" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K26" s="7">
-        <v>0.1197263895948325</v>
+        <v>0.11972638959483251</v>
       </c>
       <c r="L26" s="7">
         <v>0.7226344206531149</v>
@@ -2698,34 +3415,34 @@
         <v>12.878138</v>
       </c>
       <c r="N26" s="7">
-        <v>13.995171</v>
+        <v>13.995170999999999</v>
       </c>
       <c r="O26" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P26" s="7">
-        <v>-0.3954796516102148</v>
+        <v>-0.39547965161021481</v>
       </c>
       <c r="Q26" s="7">
-        <v>0.04042904519201464</v>
+        <v>4.0429045192014637E-2</v>
       </c>
       <c r="R26" s="7">
-        <v>14.291412</v>
+        <v>14.291411999999999</v>
       </c>
       <c r="S26" s="7">
         <v>15.456394</v>
       </c>
       <c r="T26" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U26" s="7">
-        <v>-0.4483695686004374</v>
+        <v>-0.44836956860043742</v>
       </c>
       <c r="V26" s="7">
-        <v>-0.03213842730736795</v>
+        <v>-3.2138427307367948E-2</v>
       </c>
       <c r="W26" s="7">
-        <v>14.112246</v>
+        <v>14.112246000000001</v>
       </c>
       <c r="X26" s="7">
         <v>15.212719</v>
@@ -2734,28 +3451,28 @@
         <v>14.345195</v>
       </c>
       <c r="Z26" s="7">
-        <v>-0.09302173883772052</v>
+        <v>-9.3021738837720525E-2</v>
       </c>
       <c r="AA26" s="7">
-        <v>0.2714314839086944</v>
+        <v>0.27143148390869443</v>
       </c>
       <c r="AB26" s="7">
-        <v>14.9236145</v>
+        <v>14.923614499999999</v>
       </c>
       <c r="AC26" s="7">
-        <v>16.209112</v>
+        <v>16.209112000000001</v>
       </c>
       <c r="AD26" s="7">
-        <v>11.991267</v>
+        <v>11.991267000000001</v>
       </c>
       <c r="AE26" s="7">
-        <v>13.632025</v>
+        <v>13.632025000000001</v>
       </c>
       <c r="AF26" s="7">
-        <v>41737.88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+        <v>41737.879999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>60</v>
       </c>
@@ -2778,16 +3495,16 @@
         <v>14.564</v>
       </c>
       <c r="H27" s="7">
-        <v>6.71701</v>
+        <v>6.7170100000000001</v>
       </c>
       <c r="I27" s="7">
-        <v>8.051817</v>
+        <v>8.0518169999999998</v>
       </c>
       <c r="J27" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K27" s="7">
-        <v>0.7104993075615841</v>
+        <v>0.71049930756158408</v>
       </c>
       <c r="L27" s="7">
         <v>1.116247965997992</v>
@@ -2808,22 +3525,22 @@
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="7">
-        <v>20.847927</v>
+        <v>20.847926999999999</v>
       </c>
       <c r="AC27" s="7">
-        <v>22.433943</v>
+        <v>22.433942999999999</v>
       </c>
       <c r="AD27" s="7">
-        <v>11.159802</v>
+        <v>11.159802000000001</v>
       </c>
       <c r="AE27" s="7">
-        <v>11.159802</v>
+        <v>11.159802000000001</v>
       </c>
       <c r="AF27" s="7">
         <v>3027.97</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>61</v>
       </c>
@@ -2843,46 +3560,46 @@
         <v>93.9666</v>
       </c>
       <c r="G28" s="6">
-        <v>105.1821</v>
+        <v>105.18210000000001</v>
       </c>
       <c r="H28" s="7">
-        <v>4.4857893</v>
+        <v>4.4857893000000004</v>
       </c>
       <c r="I28" s="7">
-        <v>5.37879</v>
+        <v>5.3787900000000004</v>
       </c>
       <c r="J28" s="7">
-        <v>4.9519315</v>
+        <v>4.9519314999999997</v>
       </c>
       <c r="K28" s="7">
-        <v>-0.2117908606278465</v>
+        <v>-0.21179086062784649</v>
       </c>
       <c r="L28" s="7">
-        <v>0.1685854803441559</v>
+        <v>0.16858548034415591</v>
       </c>
       <c r="M28" s="7">
         <v>18.535843</v>
       </c>
       <c r="N28" s="7">
-        <v>19.548841</v>
+        <v>19.548840999999999</v>
       </c>
       <c r="O28" s="7">
         <v>14.65863</v>
       </c>
       <c r="P28" s="7">
-        <v>1.307389226620636</v>
+        <v>1.3073892266206359</v>
       </c>
       <c r="Q28" s="7">
-        <v>1.643611971718497</v>
+        <v>1.6436119717184969</v>
       </c>
       <c r="R28" s="7">
-        <v>20.761665</v>
+        <v>20.761665000000001</v>
       </c>
       <c r="S28" s="7">
         <v>21.783165</v>
       </c>
       <c r="T28" s="7">
-        <v>16.22205</v>
+        <v>16.222049999999999</v>
       </c>
       <c r="U28" s="7">
         <v>1.250706107368277</v>
@@ -2894,7 +3611,7 @@
         <v>15.158011</v>
       </c>
       <c r="X28" s="7">
-        <v>16.227982</v>
+        <v>16.227982000000001</v>
       </c>
       <c r="Y28" s="7">
         <v>14.765972</v>
@@ -2903,13 +3620,13 @@
         <v>0.1026834566450316</v>
       </c>
       <c r="AA28" s="7">
-        <v>0.3131706407765883</v>
+        <v>0.31317064077658829</v>
       </c>
       <c r="AB28" s="7">
-        <v>12.972736</v>
+        <v>12.972735999999999</v>
       </c>
       <c r="AC28" s="7">
-        <v>16.400904</v>
+        <v>16.400904000000001</v>
       </c>
       <c r="AD28" s="7">
         <v>11.679408</v>
@@ -2921,7 +3638,7 @@
         <v>50559.58</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
@@ -2944,64 +3661,64 @@
         <v>417.88</v>
       </c>
       <c r="H29" s="7">
-        <v>3.2690952</v>
+        <v>3.2690952000000002</v>
       </c>
       <c r="I29" s="7">
-        <v>4.854422</v>
+        <v>4.8544219999999996</v>
       </c>
       <c r="J29" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K29" s="7">
-        <v>-0.4394012410467905</v>
+        <v>-0.43940124104679051</v>
       </c>
       <c r="L29" s="7">
-        <v>0.1307609964364075</v>
+        <v>0.13076099643640751</v>
       </c>
       <c r="M29" s="7">
-        <v>11.211519</v>
+        <v>11.211518999999999</v>
       </c>
       <c r="N29" s="7">
-        <v>12.9149685</v>
+        <v>12.914968500000001</v>
       </c>
       <c r="O29" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P29" s="7">
-        <v>-0.8504605727318629</v>
+        <v>-0.85046057273186293</v>
       </c>
       <c r="Q29" s="7">
         <v>-0.3155853216641224</v>
       </c>
       <c r="R29" s="7">
-        <v>12.226783</v>
+        <v>12.226782999999999</v>
       </c>
       <c r="S29" s="7">
-        <v>13.935607</v>
+        <v>13.935606999999999</v>
       </c>
       <c r="T29" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U29" s="7">
-        <v>-0.9775850262992289</v>
+        <v>-0.97758502629922894</v>
       </c>
       <c r="V29" s="7">
-        <v>-0.4746643860180226</v>
+        <v>-0.47466438601802258</v>
       </c>
       <c r="W29" s="7">
-        <v>11.317028</v>
+        <v>11.317028000000001</v>
       </c>
       <c r="X29" s="7">
-        <v>12.988895</v>
+        <v>12.988894999999999</v>
       </c>
       <c r="Y29" s="7">
         <v>14.345195</v>
       </c>
       <c r="Z29" s="7">
-        <v>-0.8857051697539937</v>
+        <v>-0.88570516975399372</v>
       </c>
       <c r="AA29" s="7">
-        <v>-0.4121243524024177</v>
+        <v>-0.41212435240241768</v>
       </c>
       <c r="AB29" s="7">
         <v>16.803507</v>
@@ -3013,13 +3730,13 @@
         <v>17.23967</v>
       </c>
       <c r="AE29" s="7">
-        <v>13.632025</v>
+        <v>13.632025000000001</v>
       </c>
       <c r="AF29" s="7">
-        <v>599.83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+        <v>599.83000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>63</v>
       </c>
@@ -3039,19 +3756,19 @@
         <v>15.2736</v>
       </c>
       <c r="G30" s="6">
-        <v>16.1087</v>
+        <v>16.108699999999999</v>
       </c>
       <c r="H30" s="7">
-        <v>0.52300256</v>
+        <v>0.52300256000000001</v>
       </c>
       <c r="I30" s="7">
         <v>2.036178</v>
       </c>
       <c r="J30" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K30" s="7">
-        <v>-0.5729241697564844</v>
+        <v>-0.57292416975648441</v>
       </c>
       <c r="L30" s="7">
         <v>-0.3268945744679656</v>
@@ -3060,16 +3777,16 @@
         <v>13.79936</v>
       </c>
       <c r="N30" s="7">
-        <v>15.573503</v>
+        <v>15.573503000000001</v>
       </c>
       <c r="O30" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P30" s="7">
-        <v>0.04122064898942695</v>
+        <v>4.1220648989426949E-2</v>
       </c>
       <c r="Q30" s="7">
-        <v>0.2669423318148011</v>
+        <v>0.26694233181480109</v>
       </c>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -3082,7 +3799,7 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="7">
-        <v>13.450662</v>
+        <v>13.450661999999999</v>
       </c>
       <c r="AC30" s="7">
         <v>15.264502</v>
@@ -3097,7 +3814,7 @@
         <v>2966.5</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
@@ -3114,55 +3831,55 @@
         <v>46006</v>
       </c>
       <c r="F31" s="6">
-        <v>95.8288</v>
+        <v>95.828800000000001</v>
       </c>
       <c r="G31" s="6">
         <v>106.4473</v>
       </c>
       <c r="H31" s="7">
-        <v>4.632105</v>
+        <v>4.6321050000000001</v>
       </c>
       <c r="I31" s="7">
-        <v>5.344632</v>
+        <v>5.3446319999999998</v>
       </c>
       <c r="J31" s="7">
-        <v>4.9519315</v>
+        <v>4.9519314999999997</v>
       </c>
       <c r="K31" s="7">
         <v>-0.1830616986306596</v>
       </c>
       <c r="L31" s="7">
-        <v>0.1059479165459944</v>
+        <v>0.10594791654599441</v>
       </c>
       <c r="M31" s="7">
-        <v>13.931674</v>
+        <v>13.931673999999999</v>
       </c>
       <c r="N31" s="7">
-        <v>14.72577</v>
+        <v>14.725770000000001</v>
       </c>
       <c r="O31" s="7">
         <v>14.65863</v>
       </c>
       <c r="P31" s="7">
-        <v>-0.2798710415281745</v>
+        <v>-0.27987104152817449</v>
       </c>
       <c r="Q31" s="7">
-        <v>-0.03696475691164976</v>
+        <v>-3.6964756911649757E-2</v>
       </c>
       <c r="R31" s="7">
         <v>15.340296</v>
       </c>
       <c r="S31" s="7">
-        <v>16.16665</v>
+        <v>16.166650000000001</v>
       </c>
       <c r="T31" s="7">
-        <v>16.22205</v>
+        <v>16.222049999999999</v>
       </c>
       <c r="U31" s="7">
-        <v>-0.3067376366151132</v>
+        <v>-0.30673763661511322</v>
       </c>
       <c r="V31" s="7">
-        <v>-0.05679668407646642</v>
+        <v>-5.6796684076466417E-2</v>
       </c>
       <c r="W31" s="7">
         <v>13.19689</v>
@@ -3174,26 +3891,26 @@
         <v>14.765972</v>
       </c>
       <c r="Z31" s="7">
-        <v>-0.467258395784354</v>
+        <v>-0.46725839578435402</v>
       </c>
       <c r="AA31" s="7">
-        <v>-0.1980771512385057</v>
+        <v>-0.19807715123850569</v>
       </c>
       <c r="AB31" s="7">
-        <v>12.060918</v>
+        <v>12.060917999999999</v>
       </c>
       <c r="AC31" s="7">
-        <v>15.296117</v>
+        <v>15.296117000000001</v>
       </c>
       <c r="AD31" s="8"/>
       <c r="AE31" s="7">
         <v>13.808118</v>
       </c>
       <c r="AF31" s="7">
-        <v>55609.12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+        <v>55609.120000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
@@ -3213,22 +3930,22 @@
         <v>21.6983</v>
       </c>
       <c r="G32" s="6">
-        <v>23.4166</v>
+        <v>23.416599999999999</v>
       </c>
       <c r="H32" s="7">
-        <v>1.1259117</v>
+        <v>1.1259117000000001</v>
       </c>
       <c r="I32" s="7">
-        <v>2.4160457</v>
+        <v>2.4160457000000002</v>
       </c>
       <c r="J32" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K32" s="7">
         <v>-1.191192544379216</v>
       </c>
       <c r="L32" s="7">
-        <v>-0.7410586063945364</v>
+        <v>-0.74105860639453636</v>
       </c>
       <c r="M32" s="7">
         <v>11.350809</v>
@@ -3237,28 +3954,28 @@
         <v>12.799476</v>
       </c>
       <c r="O32" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P32" s="7">
-        <v>-0.9515248626260416</v>
+        <v>-0.95152486262604163</v>
       </c>
       <c r="Q32" s="7">
         <v>-0.4102171308980932</v>
       </c>
       <c r="R32" s="7">
-        <v>13.951258</v>
+        <v>13.951257999999999</v>
       </c>
       <c r="S32" s="7">
         <v>15.61666</v>
       </c>
       <c r="T32" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U32" s="7">
-        <v>-0.5577343728807408</v>
+        <v>-0.55773437288074079</v>
       </c>
       <c r="V32" s="7">
-        <v>0.02560844113476002</v>
+        <v>2.5608441134760022E-2</v>
       </c>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
@@ -3266,22 +3983,22 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
       <c r="AB32" s="7">
-        <v>16.036642</v>
+        <v>16.036642000000001</v>
       </c>
       <c r="AC32" s="7">
         <v>17.747076</v>
       </c>
       <c r="AD32" s="7">
-        <v>18.661076</v>
+        <v>18.661076000000001</v>
       </c>
       <c r="AE32" s="7">
-        <v>18.661076</v>
+        <v>18.661076000000001</v>
       </c>
       <c r="AF32" s="7">
         <v>3366.82</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
@@ -3298,25 +4015,25 @@
         <v>46006</v>
       </c>
       <c r="F33" s="6">
-        <v>524.0798</v>
+        <v>524.07979999999998</v>
       </c>
       <c r="G33" s="6">
-        <v>604.1011</v>
+        <v>604.10109999999997</v>
       </c>
       <c r="H33" s="7">
-        <v>4.1611023</v>
+        <v>4.1611022999999996</v>
       </c>
       <c r="I33" s="7">
-        <v>5.2528253</v>
+        <v>5.2528252999999996</v>
       </c>
       <c r="J33" s="7">
-        <v>4.4302382</v>
+        <v>4.4302381999999998</v>
       </c>
       <c r="K33" s="7">
         <v>-0.1249734305148321</v>
       </c>
       <c r="L33" s="7">
-        <v>0.3143196527782228</v>
+        <v>0.31431965277822282</v>
       </c>
       <c r="M33" s="7">
         <v>14.371689</v>
@@ -3325,28 +4042,28 @@
         <v>15.524576</v>
       </c>
       <c r="O33" s="7">
-        <v>13.795687</v>
+        <v>13.795686999999999</v>
       </c>
       <c r="P33" s="7">
         <v>0.2051428616078077</v>
       </c>
       <c r="Q33" s="7">
-        <v>0.6127524475628919</v>
+        <v>0.61275244756289193</v>
       </c>
       <c r="R33" s="7">
-        <v>16.709576</v>
+        <v>16.709575999999998</v>
       </c>
       <c r="S33" s="7">
         <v>17.852577</v>
       </c>
       <c r="T33" s="7">
-        <v>15.436025</v>
+        <v>15.436025000000001</v>
       </c>
       <c r="U33" s="7">
-        <v>0.3945811297858315</v>
+        <v>0.39458112978583149</v>
       </c>
       <c r="V33" s="7">
-        <v>0.752187446588314</v>
+        <v>0.75218744658831405</v>
       </c>
       <c r="W33" s="7">
         <v>12.871808</v>
@@ -3358,26 +4075,26 @@
         <v>14.345195</v>
       </c>
       <c r="Z33" s="7">
-        <v>-0.4396262485827834</v>
+        <v>-0.43962624858278337</v>
       </c>
       <c r="AA33" s="7">
-        <v>-0.05513640776457401</v>
+        <v>-5.5136407764574007E-2</v>
       </c>
       <c r="AB33" s="7">
-        <v>15.407818</v>
+        <v>15.407818000000001</v>
       </c>
       <c r="AC33" s="7">
-        <v>14.098945</v>
+        <v>14.098945000000001</v>
       </c>
       <c r="AD33" s="8"/>
       <c r="AE33" s="7">
-        <v>13.632025</v>
+        <v>13.632025000000001</v>
       </c>
       <c r="AF33" s="7">
         <v>2825.32</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>67</v>
       </c>
@@ -3400,13 +4117,13 @@
         <v>170.79</v>
       </c>
       <c r="H34" s="7">
-        <v>0.5704315</v>
+        <v>0.57043149999999998</v>
       </c>
       <c r="I34" s="7">
-        <v>0.7568988</v>
+        <v>0.75689879999999998</v>
       </c>
       <c r="J34" s="7">
-        <v>4.9519315</v>
+        <v>4.9519314999999997</v>
       </c>
       <c r="K34" s="7">
         <v>-1.421613717394528</v>
@@ -3415,19 +4132,19 @@
         <v>-1.3602168341834</v>
       </c>
       <c r="M34" s="7">
-        <v>13.43274</v>
+        <v>13.432740000000001</v>
       </c>
       <c r="N34" s="7">
-        <v>13.573932</v>
+        <v>13.573931999999999</v>
       </c>
       <c r="O34" s="7">
         <v>14.65863</v>
       </c>
       <c r="P34" s="7">
-        <v>-0.2083803211017524</v>
+        <v>-0.20838032110175239</v>
       </c>
       <c r="Q34" s="7">
-        <v>-0.1807260978030228</v>
+        <v>-0.18072609780302279</v>
       </c>
       <c r="R34" s="7">
         <v>14.305667</v>
@@ -3436,16 +4153,16 @@
         <v>14.429131</v>
       </c>
       <c r="T34" s="7">
-        <v>16.22205</v>
+        <v>16.222049999999999</v>
       </c>
       <c r="U34" s="7">
-        <v>-0.3417216269562984</v>
+        <v>-0.34172162695629837</v>
       </c>
       <c r="V34" s="7">
-        <v>-0.3178848794964255</v>
+        <v>-0.31788487949642552</v>
       </c>
       <c r="W34" s="7">
-        <v>10.4906</v>
+        <v>10.490600000000001</v>
       </c>
       <c r="X34" s="7">
         <v>10.913271</v>
@@ -3454,26 +4171,26 @@
         <v>14.765972</v>
       </c>
       <c r="Z34" s="7">
-        <v>-0.974251364580701</v>
+        <v>-0.97425136458070105</v>
       </c>
       <c r="AA34" s="7">
-        <v>-0.8774086821189235</v>
+        <v>-0.87740868211892353</v>
       </c>
       <c r="AB34" s="7">
         <v>10.769828</v>
       </c>
       <c r="AC34" s="7">
-        <v>10.892629</v>
+        <v>10.892628999999999</v>
       </c>
       <c r="AD34" s="8"/>
       <c r="AE34" s="7">
-        <v>13.787717</v>
+        <v>13.787717000000001</v>
       </c>
       <c r="AF34" s="7">
         <v>52.08</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
@@ -3490,25 +4207,25 @@
         <v>46006</v>
       </c>
       <c r="F35" s="6">
-        <v>283.0939</v>
+        <v>283.09390000000002</v>
       </c>
       <c r="G35" s="6">
-        <v>311.3862</v>
+        <v>311.38619999999997</v>
       </c>
       <c r="H35" s="7">
-        <v>3.995014</v>
+        <v>3.9950139999999998</v>
       </c>
       <c r="I35" s="7">
-        <v>4.8479233</v>
+        <v>4.8479232999999997</v>
       </c>
       <c r="J35" s="7">
-        <v>4.9519315</v>
+        <v>4.9519314999999997</v>
       </c>
       <c r="K35" s="7">
-        <v>-0.4537433180647777</v>
+        <v>-0.45374331806477769</v>
       </c>
       <c r="L35" s="7">
-        <v>-0.09526315276878379</v>
+        <v>-9.526315276878379E-2</v>
       </c>
       <c r="M35" s="7">
         <v>12.598027</v>
@@ -3520,7 +4237,7 @@
         <v>14.65863</v>
       </c>
       <c r="P35" s="7">
-        <v>-0.7095514749536285</v>
+        <v>-0.70955147495362847</v>
       </c>
       <c r="Q35" s="7">
         <v>-0.4001593788813444</v>
@@ -3532,34 +4249,34 @@
         <v>14.890084</v>
       </c>
       <c r="T35" s="7">
-        <v>16.22205</v>
+        <v>16.222049999999999</v>
       </c>
       <c r="U35" s="7">
-        <v>-0.7760796277646133</v>
+        <v>-0.77607962776461326</v>
       </c>
       <c r="V35" s="7">
-        <v>-0.4600345546125132</v>
+        <v>-0.46003455461251319</v>
       </c>
       <c r="W35" s="7">
         <v>12.779643</v>
       </c>
       <c r="X35" s="7">
-        <v>13.717443</v>
+        <v>13.717442999999999</v>
       </c>
       <c r="Y35" s="7">
         <v>14.765972</v>
       </c>
       <c r="Z35" s="7">
-        <v>-0.6492851756300582</v>
+        <v>-0.64928517563005816</v>
       </c>
       <c r="AA35" s="7">
-        <v>-0.3692403713951248</v>
+        <v>-0.36924037139512478</v>
       </c>
       <c r="AB35" s="7">
-        <v>13.170462</v>
+        <v>13.170462000000001</v>
       </c>
       <c r="AC35" s="7">
-        <v>13.801792</v>
+        <v>13.801792000000001</v>
       </c>
       <c r="AD35" s="8"/>
       <c r="AE35" s="7">
@@ -3569,7 +4286,7 @@
         <v>13317.96</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -3592,22 +4309,22 @@
         <v>25.5</v>
       </c>
       <c r="H36" s="7">
-        <v>-0.04157824</v>
+        <v>-4.1578240000000002E-2</v>
       </c>
       <c r="I36" s="7">
         <v>0.9449166</v>
       </c>
       <c r="J36" s="7">
-        <v>4.9519315</v>
+        <v>4.9519314999999997</v>
       </c>
       <c r="K36" s="7">
-        <v>-2.462640066014513</v>
+        <v>-2.4626400660145129</v>
       </c>
       <c r="L36" s="7">
-        <v>-1.972371692057043</v>
+        <v>-1.9723716920570431</v>
       </c>
       <c r="M36" s="7">
-        <v>11.985496</v>
+        <v>11.985495999999999</v>
       </c>
       <c r="N36" s="7">
         <v>12.950758</v>
@@ -3616,25 +4333,25 @@
         <v>14.65863</v>
       </c>
       <c r="P36" s="7">
-        <v>-1.007671401636775</v>
+        <v>-1.0076714016367749</v>
       </c>
       <c r="Q36" s="7">
-        <v>-0.6359889485672398</v>
+        <v>-0.63598894856723975</v>
       </c>
       <c r="R36" s="7">
-        <v>13.517259</v>
+        <v>13.517258999999999</v>
       </c>
       <c r="S36" s="7">
         <v>14.398562</v>
       </c>
       <c r="T36" s="7">
-        <v>16.22205</v>
+        <v>16.222049999999999</v>
       </c>
       <c r="U36" s="7">
-        <v>-1.024324580798938</v>
+        <v>-1.0243245807989381</v>
       </c>
       <c r="V36" s="7">
-        <v>-0.6870584271639191</v>
+        <v>-0.68705842716391907</v>
       </c>
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
@@ -3657,12 +4374,12 @@
         <v>471.63</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>37</v>
@@ -3671,90 +4388,4057 @@
         <v>37</v>
       </c>
       <c r="E37" s="5">
-        <v>46006</v>
+        <v>46010</v>
       </c>
       <c r="F37" s="6">
-        <v>15.349</v>
-      </c>
-      <c r="G37" s="6">
-        <v>16.151</v>
-      </c>
-      <c r="H37" s="7">
-        <v>3.0036325</v>
-      </c>
-      <c r="I37" s="7">
-        <v>4.700657</v>
-      </c>
-      <c r="J37" s="7">
-        <v>4.9519315</v>
-      </c>
-      <c r="K37" s="7">
-        <v>-0.7663126543990748</v>
-      </c>
-      <c r="L37" s="7">
-        <v>-0.1030850654960131</v>
-      </c>
-      <c r="M37" s="7">
-        <v>16.290144</v>
-      </c>
-      <c r="N37" s="7">
-        <v>18.255234</v>
-      </c>
-      <c r="O37" s="7">
-        <v>14.65863</v>
-      </c>
-      <c r="P37" s="7">
-        <v>0.5147571636711923</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>1.128306481824379</v>
-      </c>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
+        <v>15.132400000000001</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
-      <c r="AB37" s="7">
-        <v>15.129998</v>
-      </c>
-      <c r="AC37" s="7">
-        <v>17.074408</v>
-      </c>
-      <c r="AD37" s="7">
-        <v>13.745577</v>
-      </c>
-      <c r="AE37" s="7">
-        <v>13.745577</v>
-      </c>
-      <c r="AF37" s="7">
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1886.01</v>
+      </c>
+      <c r="G38" s="6">
+        <v>16.151</v>
+      </c>
+      <c r="H38" s="7">
+        <v>3.0036325000000001</v>
+      </c>
+      <c r="I38" s="7">
+        <v>4.7006569999999996</v>
+      </c>
+      <c r="J38" s="7">
+        <v>4.9519314999999997</v>
+      </c>
+      <c r="K38" s="7">
+        <v>-0.76631265439907481</v>
+      </c>
+      <c r="L38" s="7">
+        <v>-0.1030850654960131</v>
+      </c>
+      <c r="M38" s="7">
+        <v>16.290144000000002</v>
+      </c>
+      <c r="N38" s="7">
+        <v>18.255234000000002</v>
+      </c>
+      <c r="O38" s="7">
+        <v>14.65863</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0.51475716367119229</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>1.1283064818243791</v>
+      </c>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="7">
+        <v>15.129998000000001</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>17.074407999999998</v>
+      </c>
+      <c r="AD38" s="7">
+        <v>13.745577000000001</v>
+      </c>
+      <c r="AE38" s="7">
+        <v>13.745577000000001</v>
+      </c>
+      <c r="AF38" s="7">
         <v>1132.68</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F39" s="6">
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>73</v>
+      <c r="C40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F40" s="6">
+        <v>14.884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F41" s="6">
+        <v>214.49199999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F42" s="6">
+        <v>35.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F43" s="6">
+        <v>15.679600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F44" s="6">
+        <v>347.98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F45" s="6">
+        <v>10.062900000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F46" s="6">
+        <v>104.764</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F47" s="6">
+        <v>39.488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1661.2581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F49" s="6">
+        <v>2058.0590000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F50" s="6">
+        <v>219.99529999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F51" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F52" s="6">
+        <v>19.850000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F53" s="6">
+        <v>18.142299999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F54" s="6">
+        <v>18.87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F55" s="6">
+        <v>96.990600000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F57" s="6">
+        <v>86.447999999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F58" s="6">
+        <v>101.43510000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F59" s="6">
+        <v>16.564900000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F60" s="6">
+        <v>16.373999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F61" s="6">
+        <v>61.101199999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F62" s="6">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F63" s="6">
+        <v>23.4756</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F64" s="6">
+        <v>16.8598</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F65" s="6">
+        <v>36.72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F66" s="6">
+        <v>86.4024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F67" s="6">
+        <v>99.170299999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F68" s="6">
+        <v>112.41419999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F69" s="6">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F70" s="6">
+        <v>20.431699999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F71" s="6">
+        <v>15.1709</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F72" s="6">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F73" s="6">
+        <v>24.832699999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F74" s="6">
+        <v>224.18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F75" s="6">
+        <v>10.146800000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F76" s="6">
+        <v>322.35610000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F77" s="6">
+        <v>10.288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="5">
+        <v>46010</v>
+      </c>
+      <c r="F79" s="6">
+        <v>51.86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F80" s="6">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F81" s="6">
+        <v>113.89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F82" s="6">
+        <v>17.530999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F83" s="6">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F84" s="6">
+        <v>105.1223</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F85" s="6">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F86" s="6">
+        <v>150.304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F87" s="6">
+        <v>104.831</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F88" s="6">
+        <v>2812.3049000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F89" s="6">
+        <v>203.64599999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F90" s="6">
+        <v>406.00959999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F91" s="6">
+        <v>12.76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F92" s="6">
+        <v>315.12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F93" s="6">
+        <v>22.1235</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F94" s="6">
+        <v>184.71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F95" s="6">
+        <v>19.0395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F96" s="6">
+        <v>137.44399999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F97" s="6">
+        <v>29.45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F98" s="6">
+        <v>33.724899999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F99" s="6">
+        <v>37.996000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F100" s="6">
+        <v>100.4803</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F101" s="6">
+        <v>4238.2516999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F102" s="6">
+        <v>64.17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F103" s="6">
+        <v>211.87190000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F104" s="6">
+        <v>234.5669</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F105" s="6">
+        <v>1441.8400999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F106" s="6">
+        <v>451.56349999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E107" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F107" s="6">
+        <v>121.41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F108" s="6">
+        <v>304.4658</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F110" s="6">
+        <v>48.93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E113" s="5">
+        <v>46014</v>
+      </c>
+      <c r="F113" s="6">
+        <v>20.216000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E126" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E128" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E129" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E131" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E132" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E133" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E134" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E135" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E136" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E137" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E140" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E142" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E144" s="5"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E145" s="5">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E176" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E177" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E178" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E179" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E180" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E181" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E182" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E183" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E184" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E185" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E186" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E188" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E189" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E190" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E191" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E192" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E193" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E194" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="5"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E196" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E198" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E238" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E239" s="5">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E240" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F240" s="12">
+        <v>47.589700000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E241" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F241" s="12">
+        <v>149.434</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E242" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F242" s="12">
+        <v>54.93</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D243" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E243" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F243" s="12">
+        <v>88.576999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E244" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F244" s="12">
+        <v>22.4269</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D245" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E245" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F245" s="12">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E246" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F246" s="12">
+        <v>56.387999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D247" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E247" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F247" s="12">
+        <v>16.911000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E248" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F248" s="12">
+        <v>110.7551</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E249" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F249" s="12">
+        <v>237.934</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E250" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F250" s="12">
+        <v>26.061199999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E251" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F251" s="12">
+        <v>98.02</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E252" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F252" s="12">
+        <v>15.8446</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E253" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F253" s="12">
+        <v>26.93</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E254" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F254" s="12">
+        <v>20.170500000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D255" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E255" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F255" s="12">
+        <v>27.087</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D256" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E256" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F256" s="12">
+        <v>21.536899999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D257" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E257" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F257" s="12">
+        <v>27.291399999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D258" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E258" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F258" s="12">
+        <v>26.116</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E259" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F259" s="12">
+        <v>44.170299999999997</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E260" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F260" s="12">
+        <v>124.2313</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D261" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E261" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F261" s="12">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E262" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F262" s="12">
+        <v>85.756600000000006</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D263" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E263" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F263" s="12">
+        <v>382.61070000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D264" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E264" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F264" s="12">
+        <v>163.18539999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D265" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E265" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F265" s="12">
+        <v>23.770399999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D266" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E266" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F266" s="12">
+        <v>15.832700000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D267" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E267" s="11">
+        <v>46015</v>
+      </c>
+      <c r="F267" s="12">
+        <v>25.28</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A41" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/backend/data_ingestion/benchmarks/Fund-Benchmark.xlsx
+++ b/backend/data_ingestion/benchmarks/Fund-Benchmark.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{C8C73469-044F-4266-81BE-DF9E2CCDC080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D1F48BD-3602-479E-B2E3-E39C23E1742E}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{F736EC56-EE39-4FB5-83D4-CE8E2F0E4D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00C122D3-2177-4B6C-ABFB-B79BBA999E0B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="488">
   <si>
     <t>Crisil Intelligence</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Axis Large Cap Fund</t>
   </si>
   <si>
-    <t>BSE 100 TRI</t>
-  </si>
-  <si>
     <t>Bajaj Finserv Large Cap Fund</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>360 ONE Flexicap Fund</t>
   </si>
   <si>
-    <t>BSE 500 TRI</t>
-  </si>
-  <si>
     <t>Aditya Birla Sun Life Flexi Cap Fund</t>
   </si>
   <si>
@@ -377,9 +371,6 @@
     <t>Bandhan Midcap Fund</t>
   </si>
   <si>
-    <t>BSE Midcap 150 TRI</t>
-  </si>
-  <si>
     <t>Bank of India Mid Cap Fund</t>
   </si>
   <si>
@@ -464,9 +455,6 @@
     <t>Aditya Birla Sun Life Small cap Fund</t>
   </si>
   <si>
-    <t>BSE 250 Smallcap TRI</t>
-  </si>
-  <si>
     <t>Axis Small Cap Fund</t>
   </si>
   <si>
@@ -936,15 +924,571 @@
   </si>
   <si>
     <t>Union Focused Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Nifty LargeMidcap 250 TRI</t>
+  </si>
+  <si>
+    <t>Axis Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Bajaj Finserv Large and Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Bandhan Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Bank of India Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Baroda BNP Paribas Large and Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Large and Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>DSP Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Large and Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>HDFC Large and Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>HSBC Large &amp; Midcap Fund</t>
+  </si>
+  <si>
+    <t>Helios Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>ITI Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>JM Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Kotak Large &amp; Midcap Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Mirae Asset Large &amp; Midcap Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Large and Midcap Fund</t>
+  </si>
+  <si>
+    <t>Navi Large &amp; Midcap Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Vision Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>PGIM India Large and Midcap Fund</t>
+  </si>
+  <si>
+    <t>Quant Large and Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>SBI Large &amp; Midcap Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Large and Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Tata Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>UTI Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Union Large and Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Banking &amp; Financial Services Fund</t>
+  </si>
+  <si>
+    <t>Nifty Financial Services TRI</t>
+  </si>
+  <si>
+    <t>Bajaj Finserv Banking and Financial Services Fund</t>
+  </si>
+  <si>
+    <t>Bandhan Financial Services Fund</t>
+  </si>
+  <si>
+    <t>Baroda BNP Paribas Banking and Financial Services Fund</t>
+  </si>
+  <si>
+    <t>DSP Banking &amp; Financial Services Fund</t>
+  </si>
+  <si>
+    <t>Groww Banking &amp; Financial Services Fund</t>
+  </si>
+  <si>
+    <t>HDFC Banking and Financial Services Fund</t>
+  </si>
+  <si>
+    <t>HSBC Financial Services Fund</t>
+  </si>
+  <si>
+    <t>Helios Financial Services Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Banking and Financial Services Fund</t>
+  </si>
+  <si>
+    <t>ITI Banking and Financial Services Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Financial Services Fund</t>
+  </si>
+  <si>
+    <t>Kotak Banking &amp; Financial Services Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Banking &amp; Financial Services Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Banking &amp; Financial Services Fund</t>
+  </si>
+  <si>
+    <t>Mirae Asset Banking and Financial Services Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Banking &amp; Financial Services Fund</t>
+  </si>
+  <si>
+    <t>Quant BFSI Fund</t>
+  </si>
+  <si>
+    <t>SBI Banking &amp; Financial Services Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Financial Services Opportunities Fund</t>
+  </si>
+  <si>
+    <t>Tata Banking And Financial Services Fund</t>
+  </si>
+  <si>
+    <t>Taurus Banking and Financial Services Fund</t>
+  </si>
+  <si>
+    <t>UTI Banking and Financial Services Fund</t>
+  </si>
+  <si>
+    <t>WhiteOak Capital Banking &amp; Financial Services Fund</t>
+  </si>
+  <si>
+    <t>White Oak Capital Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Pharma &amp; Healthcare Fund</t>
+  </si>
+  <si>
+    <t>Bajaj Finserv Healthcare Fund</t>
+  </si>
+  <si>
+    <t>Baroda BNP Paribas Health and Wellness Fund</t>
+  </si>
+  <si>
+    <t>DSP Healthcare Fund</t>
+  </si>
+  <si>
+    <t>HDFC Pharma and Healthcare Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Pharma Healthcare and Diagnostics (P.H.D) Fund</t>
+  </si>
+  <si>
+    <t>ITI Pharma &amp; Healthcare Fund</t>
+  </si>
+  <si>
+    <t>Kotak Healthcare Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Healthcare Fund</t>
+  </si>
+  <si>
+    <t>Mirae Asset Healthcare Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Pharma Fund</t>
+  </si>
+  <si>
+    <t>PGIM India Healthcare Fund</t>
+  </si>
+  <si>
+    <t>Quant Healthcare Fund</t>
+  </si>
+  <si>
+    <t>SBI Healthcare Opportunities Fund</t>
+  </si>
+  <si>
+    <t>Tata India Pharma &amp; Heathcare Fund</t>
+  </si>
+  <si>
+    <t>UTI Healthcare Fund</t>
+  </si>
+  <si>
+    <t>WhiteOak Capital Pharma and Healthcare Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>Nifty Infrastructure TRI</t>
+  </si>
+  <si>
+    <t>Bandhan Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>DSP India T.I.G.E.R. Fund</t>
+  </si>
+  <si>
+    <t>Franklin Build India Fund</t>
+  </si>
+  <si>
+    <t>HDFC Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>HSBC Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>Kotak Infrastructure and Economic Reform Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>Mirae Asset Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Power &amp; Infra Fund</t>
+  </si>
+  <si>
+    <t>Quant Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>SBI Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Infrastructure Advantage Fund</t>
+  </si>
+  <si>
+    <t>Tata Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>Taurus Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>UTI Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Consumption Fund</t>
+  </si>
+  <si>
+    <t>Nifty India Consumption TRI</t>
+  </si>
+  <si>
+    <t>Axis Consumption Fund</t>
+  </si>
+  <si>
+    <t>Bajaj Finserv Consumption Fund</t>
+  </si>
+  <si>
+    <t>Bank of India Consumption Fund</t>
+  </si>
+  <si>
+    <t>Baroda BNP Paribas India Consumption Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Consumer Trends Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Consumption Fund</t>
+  </si>
+  <si>
+    <t>HDFC Non-Cyclical Consumer Fund</t>
+  </si>
+  <si>
+    <t>HSBC Consumption Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Bharat Consumption Fund</t>
+  </si>
+  <si>
+    <t>ITI Bharat Consumption Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Consumption Fund</t>
+  </si>
+  <si>
+    <t>Kotak Consumption Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Consumption Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Consumption Fund</t>
+  </si>
+  <si>
+    <t>Mirae Asset Great Consumer Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Consumption Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Consumption Fund</t>
+  </si>
+  <si>
+    <t>Quant Consumption Fund</t>
+  </si>
+  <si>
+    <t>SBI Consumption Opportunities Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Consumption Fund</t>
+  </si>
+  <si>
+    <t>Tata India Consumer Fund</t>
+  </si>
+  <si>
+    <t>UTI India Consumer Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>Axis Business Cycles Fund</t>
+  </si>
+  <si>
+    <t>Bandhan Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>Bank of India Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>Baroda BNP Paribas Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>DSP Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>HDFC Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>HSBC Business Cycles Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>Kotak Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>Quant Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>Tata Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>Union Business Cycle Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life ESG Integration Strategy Fund</t>
+  </si>
+  <si>
+    <t>Nifty 100 ESG TRI</t>
+  </si>
+  <si>
+    <t>Axis ESG Integration Strategy Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential ESG Exclusionary Strategy Fund</t>
+  </si>
+  <si>
+    <t>Invesco India ESG Integration Strategy Fund</t>
+  </si>
+  <si>
+    <t>Kotak ESG Exclusionary Strategy Fund</t>
+  </si>
+  <si>
+    <t>Quant ESG Integration Strategy Fund</t>
+  </si>
+  <si>
+    <t>Quantum ESG Best In Class Strategy Fund</t>
+  </si>
+  <si>
+    <t>SBI ESG Exclusionary Strategy Fund</t>
+  </si>
+  <si>
+    <t>WhiteOak Capital ESG Best-In-Class Strategy Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Digital India Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Technology Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Technology Fund</t>
+  </si>
+  <si>
+    <t>HDFC Technology Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Technology Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Technology Fund</t>
+  </si>
+  <si>
+    <t>Nifty IT TRI</t>
+  </si>
+  <si>
+    <t>Kotak Technology Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Digital India Fund</t>
+  </si>
+  <si>
+    <t>Quant Teck Fund</t>
+  </si>
+  <si>
+    <t>Tata Digital India Fund</t>
+  </si>
+  <si>
+    <t>WhiteOak Capital Digital Bharat Fund</t>
+  </si>
+  <si>
+    <t>SBI Technology Opportunities Fund</t>
+  </si>
+  <si>
+    <t>Bandhan Multi-Factor Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Multi-Factor Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Multi-Factor Fund</t>
+  </si>
+  <si>
+    <t>360 ONE Quant Fund</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Quant Fund</t>
+  </si>
+  <si>
+    <t>Nifty 200 TRI</t>
+  </si>
+  <si>
+    <t>Axis Quant Fund</t>
+  </si>
+  <si>
+    <t>DSP Quant Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Quant Fund</t>
+  </si>
+  <si>
+    <t>Kotak Quant Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Quant Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Quant Fund</t>
+  </si>
+  <si>
+    <t>Quant Quantamental Fund</t>
+  </si>
+  <si>
+    <t>SBI Quant Fund</t>
+  </si>
+  <si>
+    <t>UTI Quant Fund</t>
+  </si>
+  <si>
+    <t>Banking &amp; Financial Services</t>
+  </si>
+  <si>
+    <t>Sectoral</t>
+  </si>
+  <si>
+    <t>Nifty100 TRI</t>
+  </si>
+  <si>
+    <t>Nifty500 TRI</t>
+  </si>
+  <si>
+    <t>NiftyMidcap 150 TRI</t>
+  </si>
+  <si>
+    <t>Nifty  500 TRI</t>
+  </si>
+  <si>
+    <t>Nifty Healthcare TRI</t>
+  </si>
+  <si>
+    <t>Nifty  Healthcare TRI</t>
+  </si>
+  <si>
+    <t>Nifty  Infrastructure TRI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -983,7 +1527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1006,11 +1550,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1033,15 +1592,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,10 +1609,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1385,18 +1933,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF267"/>
+  <dimension ref="A1:AH436"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B398" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E235" sqref="E235"/>
+      <selection pane="bottomRight" activeCell="D434" sqref="D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="32" width="20" customWidth="1"/>
+    <col min="1" max="1" width="46.453125" customWidth="1"/>
+    <col min="2" max="2" width="34.6328125" customWidth="1"/>
+    <col min="3" max="32" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1613,7 +2163,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>37</v>
@@ -1708,7 +2258,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>36</v>
@@ -1776,10 +2326,10 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>37</v>
@@ -1872,7 +2422,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -1950,7 +2500,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>36</v>
@@ -2048,10 +2598,10 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>37</v>
@@ -2146,10 +2696,10 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>37</v>
@@ -2242,7 +2792,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>36</v>
@@ -2340,7 +2890,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>36</v>
@@ -2436,7 +2986,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
@@ -2534,7 +3084,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>36</v>
@@ -2630,7 +3180,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>36</v>
@@ -2726,7 +3276,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>36</v>
@@ -2824,7 +3374,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>36</v>
@@ -2902,7 +3452,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>36</v>
@@ -3000,10 +3550,10 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>37</v>
@@ -3096,7 +3646,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>36</v>
@@ -3187,12 +3737,12 @@
         <v>13.632025000000001</v>
       </c>
       <c r="AF23" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -3288,7 +3838,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>36</v>
@@ -3376,7 +3926,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>36</v>
@@ -3474,7 +4024,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>36</v>
@@ -3542,10 +4092,10 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>37</v>
@@ -3640,7 +4190,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>36</v>
@@ -3738,7 +4288,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>36</v>
@@ -3816,10 +4366,10 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>39</v>
+        <v>481</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>37</v>
@@ -3912,7 +4462,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>36</v>
@@ -4000,7 +4550,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>36</v>
@@ -4096,10 +4646,10 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -4192,10 +4742,10 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>37</v>
@@ -4288,10 +4838,10 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>37</v>
@@ -4376,7 +4926,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>71</v>
@@ -4422,10 +4972,10 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>37</v>
@@ -4500,10 +5050,10 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -4520,7 +5070,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>71</v>
@@ -4540,7 +5090,7 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>71</v>
@@ -4560,7 +5110,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -4580,10 +5130,10 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>37</v>
@@ -4600,7 +5150,7 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>71</v>
@@ -4620,10 +5170,10 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -4640,10 +5190,10 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>37</v>
@@ -4660,10 +5210,10 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>37</v>
@@ -4680,10 +5230,10 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>37</v>
@@ -4700,10 +5250,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>37</v>
@@ -4720,10 +5270,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>37</v>
@@ -4740,10 +5290,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>37</v>
@@ -4760,7 +5310,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>71</v>
@@ -4780,10 +5330,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>37</v>
@@ -4800,7 +5350,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>71</v>
@@ -4820,7 +5370,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>71</v>
@@ -4840,10 +5390,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>37</v>
@@ -4858,10 +5408,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>37</v>
@@ -4878,10 +5428,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>37</v>
@@ -4898,10 +5448,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>37</v>
@@ -4918,10 +5468,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>37</v>
@@ -4938,10 +5488,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>37</v>
@@ -4958,10 +5508,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>37</v>
@@ -4978,10 +5528,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>37</v>
@@ -4998,10 +5548,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>37</v>
@@ -5018,10 +5568,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>37</v>
@@ -5038,10 +5588,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>37</v>
@@ -5058,10 +5608,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>37</v>
@@ -5078,7 +5628,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>71</v>
@@ -5098,10 +5648,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>37</v>
@@ -5118,10 +5668,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>37</v>
@@ -5138,10 +5688,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>37</v>
@@ -5158,10 +5708,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>37</v>
@@ -5178,10 +5728,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>37</v>
@@ -5198,7 +5748,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>71</v>
@@ -5218,10 +5768,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>37</v>
@@ -5238,10 +5788,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>37</v>
@@ -5258,10 +5808,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>37</v>
@@ -5278,10 +5828,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -5290,7 +5840,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>71</v>
@@ -5310,10 +5860,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>37</v>
@@ -5330,10 +5880,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>37</v>
@@ -5350,10 +5900,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>37</v>
@@ -5370,10 +5920,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>37</v>
@@ -5390,10 +5940,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>37</v>
@@ -5410,10 +5960,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>37</v>
@@ -5430,10 +5980,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>37</v>
@@ -5450,10 +6000,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>37</v>
@@ -5470,10 +6020,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>37</v>
@@ -5490,10 +6040,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>37</v>
@@ -5510,10 +6060,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>37</v>
@@ -5530,10 +6080,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>37</v>
@@ -5550,10 +6100,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>37</v>
@@ -5570,10 +6120,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>37</v>
@@ -5590,10 +6140,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>37</v>
@@ -5610,10 +6160,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>37</v>
@@ -5630,10 +6180,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>37</v>
@@ -5650,10 +6200,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>37</v>
@@ -5670,10 +6220,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>37</v>
@@ -5690,10 +6240,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>37</v>
@@ -5710,10 +6260,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>37</v>
@@ -5730,10 +6280,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>37</v>
@@ -5750,10 +6300,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>37</v>
@@ -5770,10 +6320,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>37</v>
@@ -5790,10 +6340,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>37</v>
@@ -5810,10 +6360,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>37</v>
@@ -5830,10 +6380,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>37</v>
@@ -5850,10 +6400,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>37</v>
@@ -5870,10 +6420,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>37</v>
@@ -5890,10 +6440,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>71</v>
+        <v>482</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -5902,10 +6452,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>120</v>
+        <v>483</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>37</v>
@@ -5922,10 +6472,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -5934,10 +6484,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>37</v>
@@ -5952,10 +6502,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>37</v>
@@ -5972,10 +6522,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>37</v>
@@ -5989,10 +6539,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>37</v>
@@ -6006,10 +6556,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>37</v>
@@ -6023,10 +6573,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>37</v>
@@ -6040,10 +6590,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>37</v>
@@ -6057,10 +6607,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>37</v>
@@ -6074,10 +6624,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>37</v>
@@ -6091,10 +6641,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>37</v>
@@ -6108,10 +6658,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>37</v>
@@ -6125,10 +6675,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>37</v>
@@ -6142,10 +6692,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>37</v>
@@ -6159,10 +6709,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>37</v>
@@ -6176,10 +6726,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>37</v>
@@ -6193,10 +6743,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>37</v>
@@ -6210,10 +6760,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>37</v>
@@ -6227,10 +6777,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>37</v>
@@ -6244,10 +6794,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>37</v>
@@ -6261,10 +6811,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>37</v>
@@ -6278,10 +6828,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>37</v>
@@ -6295,10 +6845,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>37</v>
@@ -6312,10 +6862,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>37</v>
@@ -6329,10 +6879,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>37</v>
@@ -6346,10 +6896,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>37</v>
@@ -6363,10 +6913,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>37</v>
@@ -6380,10 +6930,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>37</v>
@@ -6397,10 +6947,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>37</v>
@@ -6414,10 +6964,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>37</v>
@@ -6431,10 +6981,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>37</v>
@@ -6448,10 +6998,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>37</v>
@@ -6465,10 +7015,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -6476,10 +7026,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>37</v>
@@ -6491,10 +7041,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>37</v>
@@ -6508,10 +7058,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>37</v>
@@ -6522,10 +7072,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>37</v>
@@ -6536,10 +7086,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>37</v>
@@ -6550,10 +7100,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>37</v>
@@ -6564,10 +7114,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>37</v>
@@ -6578,10 +7128,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>37</v>
@@ -6592,10 +7142,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>37</v>
@@ -6606,10 +7156,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>37</v>
@@ -6620,10 +7170,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>37</v>
@@ -6634,10 +7184,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>37</v>
@@ -6648,10 +7198,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>37</v>
@@ -6662,10 +7212,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>37</v>
@@ -6676,10 +7226,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>37</v>
@@ -6690,10 +7240,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>37</v>
@@ -6704,10 +7254,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>37</v>
@@ -6718,10 +7268,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>37</v>
@@ -6732,10 +7282,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>37</v>
@@ -6746,10 +7296,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>37</v>
@@ -6760,10 +7310,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>37</v>
@@ -6774,10 +7324,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>37</v>
@@ -6788,10 +7338,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>37</v>
@@ -6802,10 +7352,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>37</v>
@@ -6816,10 +7366,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>37</v>
@@ -6830,10 +7380,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>37</v>
@@ -6844,10 +7394,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>37</v>
@@ -6858,10 +7408,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>37</v>
@@ -6872,10 +7422,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>37</v>
@@ -6886,10 +7436,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>37</v>
@@ -6900,20 +7450,20 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>37</v>
@@ -6924,10 +7474,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>37</v>
@@ -6941,10 +7491,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>37</v>
@@ -6958,7 +7508,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>71</v>
@@ -6975,10 +7525,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>37</v>
@@ -6992,7 +7542,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>71</v>
@@ -7009,10 +7559,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>37</v>
@@ -7026,10 +7576,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>37</v>
@@ -7043,10 +7593,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>37</v>
@@ -7060,10 +7610,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>37</v>
@@ -7077,10 +7627,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>37</v>
@@ -7094,7 +7644,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>71</v>
@@ -7111,10 +7661,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>37</v>
@@ -7128,10 +7678,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>37</v>
@@ -7145,10 +7695,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>37</v>
@@ -7162,10 +7712,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>37</v>
@@ -7179,7 +7729,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>71</v>
@@ -7196,10 +7746,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>37</v>
@@ -7213,10 +7763,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>37</v>
@@ -7230,10 +7780,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>37</v>
@@ -7247,7 +7797,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>71</v>
@@ -7258,10 +7808,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>37</v>
@@ -7275,10 +7825,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>37</v>
@@ -7290,10 +7840,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>37</v>
@@ -7307,7 +7857,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>71</v>
@@ -7321,7 +7871,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>71</v>
@@ -7335,7 +7885,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>71</v>
@@ -7349,10 +7899,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>37</v>
@@ -7363,7 +7913,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>71</v>
@@ -7377,10 +7927,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>37</v>
@@ -7391,10 +7941,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>37</v>
@@ -7405,10 +7955,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>37</v>
@@ -7419,7 +7969,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>71</v>
@@ -7433,10 +7983,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>37</v>
@@ -7447,10 +7997,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>37</v>
@@ -7461,10 +8011,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>37</v>
@@ -7475,10 +8025,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>37</v>
@@ -7489,10 +8039,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>37</v>
@@ -7503,7 +8053,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>71</v>
@@ -7517,7 +8067,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>71</v>
@@ -7531,10 +8081,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>37</v>
@@ -7545,10 +8095,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>37</v>
@@ -7559,10 +8109,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>37</v>
@@ -7573,10 +8123,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>37</v>
@@ -7587,10 +8137,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>37</v>
@@ -7601,10 +8151,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>37</v>
@@ -7615,10 +8165,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>37</v>
@@ -7629,10 +8179,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>37</v>
@@ -7643,10 +8193,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>37</v>
@@ -7657,10 +8207,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>37</v>
@@ -7671,10 +8221,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>37</v>
@@ -7685,7 +8235,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>71</v>
@@ -7699,7 +8249,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>71</v>
@@ -7713,10 +8263,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>37</v>
@@ -7727,10 +8277,10 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>37</v>
@@ -7741,10 +8291,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>37</v>
@@ -7755,10 +8305,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>37</v>
@@ -7769,7 +8319,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>71</v>
@@ -7783,10 +8333,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>37</v>
@@ -7797,10 +8347,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>37</v>
@@ -7811,7 +8361,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>71</v>
@@ -7825,7 +8375,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>71</v>
@@ -7835,7 +8385,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>71</v>
@@ -7845,7 +8395,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>71</v>
@@ -7862,10 +8412,10 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>37</v>
@@ -7878,563 +8428,2635 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A240" s="10" t="s">
+      <c r="A240" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E240" s="5">
+        <v>46015</v>
+      </c>
+      <c r="F240" s="6">
+        <v>47.589700000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E241" s="5">
+        <v>46015</v>
+      </c>
+      <c r="F241" s="6">
+        <v>149.434</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E242" s="5">
+        <v>46015</v>
+      </c>
+      <c r="F242" s="6">
+        <v>54.93</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E243" s="5">
+        <v>46015</v>
+      </c>
+      <c r="F243" s="6">
+        <v>88.576999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B240" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D240" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E240" s="11">
+      <c r="B244" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E244" s="5">
         <v>46015</v>
       </c>
-      <c r="F240" s="12">
-        <v>47.589700000000001</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A241" s="10" t="s">
+      <c r="F244" s="6">
+        <v>22.4269</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B241" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D241" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E241" s="11">
+      <c r="B245" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E245" s="5">
         <v>46015</v>
       </c>
-      <c r="F241" s="12">
-        <v>149.434</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A242" s="10" t="s">
+      <c r="F245" s="6">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B242" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D242" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E242" s="11">
+      <c r="B246" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E246" s="5">
         <v>46015</v>
       </c>
-      <c r="F242" s="12">
-        <v>54.93</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A243" s="10" t="s">
+      <c r="F246" s="6">
+        <v>56.387999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B243" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D243" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E243" s="11">
+      <c r="B247" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E247" s="5">
         <v>46015</v>
       </c>
-      <c r="F243" s="12">
-        <v>88.576999999999998</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A244" s="10" t="s">
+      <c r="F247" s="6">
+        <v>16.911000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B244" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D244" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E244" s="11">
+      <c r="B248" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E248" s="5">
         <v>46015</v>
       </c>
-      <c r="F244" s="12">
-        <v>22.4269</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A245" s="10" t="s">
+      <c r="F248" s="6">
+        <v>110.7551</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B245" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D245" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E245" s="11">
+      <c r="B249" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E249" s="5">
         <v>46015</v>
       </c>
-      <c r="F245" s="12">
-        <v>20.54</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A246" s="10" t="s">
+      <c r="F249" s="6">
+        <v>237.934</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B246" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D246" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E246" s="11">
+      <c r="B250" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E250" s="5">
         <v>46015</v>
       </c>
-      <c r="F246" s="12">
-        <v>56.387999999999998</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A247" s="10" t="s">
+      <c r="F250" s="6">
+        <v>26.061199999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B247" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D247" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E247" s="11">
+      <c r="B251" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E251" s="5">
         <v>46015</v>
       </c>
-      <c r="F247" s="12">
-        <v>16.911000000000001</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A248" s="10" t="s">
+      <c r="F251" s="6">
+        <v>98.02</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B248" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C248" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D248" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E248" s="11">
+      <c r="B252" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E252" s="5">
         <v>46015</v>
       </c>
-      <c r="F248" s="12">
-        <v>110.7551</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A249" s="10" t="s">
+      <c r="F252" s="6">
+        <v>15.8446</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B249" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D249" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E249" s="11">
+      <c r="B253" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E253" s="5">
         <v>46015</v>
       </c>
-      <c r="F249" s="12">
-        <v>237.934</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A250" s="10" t="s">
+      <c r="F253" s="6">
+        <v>26.93</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B250" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D250" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E250" s="11">
+      <c r="B254" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E254" s="5">
         <v>46015</v>
       </c>
-      <c r="F250" s="12">
-        <v>26.061199999999999</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A251" s="10" t="s">
+      <c r="F254" s="6">
+        <v>20.170500000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B251" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D251" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E251" s="11">
+      <c r="B255" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E255" s="5">
         <v>46015</v>
       </c>
-      <c r="F251" s="12">
-        <v>98.02</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A252" s="10" t="s">
+      <c r="F255" s="6">
+        <v>27.087</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B252" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D252" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E252" s="11">
+      <c r="B256" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E256" s="5">
         <v>46015</v>
       </c>
-      <c r="F252" s="12">
-        <v>15.8446</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A253" s="10" t="s">
+      <c r="F256" s="6">
+        <v>21.536899999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B253" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D253" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E253" s="11">
+      <c r="B257" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E257" s="5">
         <v>46015</v>
       </c>
-      <c r="F253" s="12">
-        <v>26.93</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A254" s="10" t="s">
+      <c r="F257" s="6">
+        <v>27.291399999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B254" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D254" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E254" s="11">
+      <c r="B258" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E258" s="5">
         <v>46015</v>
       </c>
-      <c r="F254" s="12">
-        <v>20.170500000000001</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A255" s="10" t="s">
+      <c r="F258" s="6">
+        <v>26.116</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B255" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C255" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D255" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E255" s="11">
+      <c r="B259" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E259" s="5">
         <v>46015</v>
       </c>
-      <c r="F255" s="12">
-        <v>27.087</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A256" s="10" t="s">
+      <c r="F259" s="6">
+        <v>44.170299999999997</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B256" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C256" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D256" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E256" s="11">
+      <c r="B260" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E260" s="5">
         <v>46015</v>
       </c>
-      <c r="F256" s="12">
-        <v>21.536899999999999</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A257" s="10" t="s">
+      <c r="F260" s="6">
+        <v>124.2313</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B257" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C257" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D257" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E257" s="11">
+      <c r="B261" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E261" s="5">
         <v>46015</v>
       </c>
-      <c r="F257" s="12">
-        <v>27.291399999999999</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A258" s="10" t="s">
+      <c r="F261" s="6">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B258" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C258" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D258" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E258" s="11">
+      <c r="B262" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E262" s="5">
         <v>46015</v>
       </c>
-      <c r="F258" s="12">
-        <v>26.116</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A259" s="10" t="s">
+      <c r="F262" s="6">
+        <v>85.756600000000006</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B259" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D259" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E259" s="11">
+      <c r="B263" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E263" s="5">
         <v>46015</v>
       </c>
-      <c r="F259" s="12">
-        <v>44.170299999999997</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A260" s="10" t="s">
+      <c r="F263" s="6">
+        <v>382.61070000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B260" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D260" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E260" s="11">
+      <c r="B264" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E264" s="5">
         <v>46015</v>
       </c>
-      <c r="F260" s="12">
-        <v>124.2313</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A261" s="10" t="s">
+      <c r="F264" s="6">
+        <v>163.18539999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B261" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C261" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D261" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E261" s="11">
+      <c r="B265" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E265" s="5">
         <v>46015</v>
       </c>
-      <c r="F261" s="12">
-        <v>12.55</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A262" s="10" t="s">
+      <c r="F265" s="6">
+        <v>23.770399999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B262" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C262" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D262" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E262" s="11">
+      <c r="B266" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E266" s="5">
         <v>46015</v>
       </c>
-      <c r="F262" s="12">
-        <v>85.756600000000006</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A263" s="10" t="s">
+      <c r="F266" s="6">
+        <v>15.832700000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B263" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C263" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D263" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E263" s="11">
+      <c r="B267" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="6"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E268" s="5"/>
+      <c r="F268" s="6"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E269" s="5">
         <v>46015</v>
       </c>
-      <c r="F263" s="12">
-        <v>382.61070000000001</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A264" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="B264" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C264" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D264" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E264" s="11">
-        <v>46015</v>
-      </c>
-      <c r="F264" s="12">
-        <v>163.18539999999999</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A265" s="10" t="s">
+      <c r="F269" s="6">
+        <v>25.28</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B270" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B265" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D265" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E265" s="11">
-        <v>46015</v>
-      </c>
-      <c r="F265" s="12">
-        <v>23.770399999999999</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A266" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D266" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E266" s="11">
-        <v>46015</v>
-      </c>
-      <c r="F266" s="12">
-        <v>15.832700000000001</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A267" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="B267" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C267" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D267" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E267" s="11">
-        <v>46015</v>
-      </c>
-      <c r="F267" s="12">
-        <v>25.28</v>
+      <c r="C270" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A271" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A272" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A274" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A276" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A277" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A279" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A280" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A283" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A290" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A292" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A295" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C298" s="4"/>
+      <c r="D298" s="4"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A299" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A300" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C300" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D300" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A301" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C301" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D301" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A302" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C302" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D302" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A303" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D303" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A304" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C304" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D304" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A305" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C305" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D305" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A306" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C306" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D306" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A307" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C307" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D307" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A308" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B308" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C308" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D308" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A309" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C309" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D309" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A310" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C310" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D310" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A311" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C311" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D311" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A312" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B312" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C312" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D312" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A313" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B313" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C313" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D313" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A314" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C314" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D314" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A315" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C315" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D315" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A316" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B316" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C316" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D316" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A317" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B317" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D317" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A318" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B318" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C318" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D318" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A319" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B319" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D319" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A320" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B320" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C320" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D320" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="321" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A321" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B321" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D321" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="322" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A322" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B322" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C322" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D322" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="323" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B323" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D323" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E323" s="11">
+        <v>46043</v>
+      </c>
+      <c r="F323" s="10">
+        <v>12.771000000000001</v>
+      </c>
+      <c r="G323" s="10">
+        <v>13.21</v>
+      </c>
+      <c r="H323" s="10">
+        <v>18.932762</v>
+      </c>
+      <c r="I323" s="10">
+        <v>20.992854999999999</v>
+      </c>
+      <c r="J323" s="10">
+        <v>20.759148</v>
+      </c>
+      <c r="K323" s="10">
+        <v>-0.39537050804818979</v>
+      </c>
+      <c r="L323" s="10">
+        <v>3.9475004802663277E-2</v>
+      </c>
+      <c r="AB323" s="10">
+        <v>13.299163</v>
+      </c>
+      <c r="AC323" s="10">
+        <v>15.270883</v>
+      </c>
+      <c r="AD323" s="10">
+        <v>16.566395</v>
+      </c>
+      <c r="AE323" s="10">
+        <v>16.566395</v>
+      </c>
+      <c r="AF323" s="10">
+        <v>561.19000000000005</v>
+      </c>
+      <c r="AG323" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH323" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="324" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A324" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C324" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D324" s="10"/>
+    </row>
+    <row r="325" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A325" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D325" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="326" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A326" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B326" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C326" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="327" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A327" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B327" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C327" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="328" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A328" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B328" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C328" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="329" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A329" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B329" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C329" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="330" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A330" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B330" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C330" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="331" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A331" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B331" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C331" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="332" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A332" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B332" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C332" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="333" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A333" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B333" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C333" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="334" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A334" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B334" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C334" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="335" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A335" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C335" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="336" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A336" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B336" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C336" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A337" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B337" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C337" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A338" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B338" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C338" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B339" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C339" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B340" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C340" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B341" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C341" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A342" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B342" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C342" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A343" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B343" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C343" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B344" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C344" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B345" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C345" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B346" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C346" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B347" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C347" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B348" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C348" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B349" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C349" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B350" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C350" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B351" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C351" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A352" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B352" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C352" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B353" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C353" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A354" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B354" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C354" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B355" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C355" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B356" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C356" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B357" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C357" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B358" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C358" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B359" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C359" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B360" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C360" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A361" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B361" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C361" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A362" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B362" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C362" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A363" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B363" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C363" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A364" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B364" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C364" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A365" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B365" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C365" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A366" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B366" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C366" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A367" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B367" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C367" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A368" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B368" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C368" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A369" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B369" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C369" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A370" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B370" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C370" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A371" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B371" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C371" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A372" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B372" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C372" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A373" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B373" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C373" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A374" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B374" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C374" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A375" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B375" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C375" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A376" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B376" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C376" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A377" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B377" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C377" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A378" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B378" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C378" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A379" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B379" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C379" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A380" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B380" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C380" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A381" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B381" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C381" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A382" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B382" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C382" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A383" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B383" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C383" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A384" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B384" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C384" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A385" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B385" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A386" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B386" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C386" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A387" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B387" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C387" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A388" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B388" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C388" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A389" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B389" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C389" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A390" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B390" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C390" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A391" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B391" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C391" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A392" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B392" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C392" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A393" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B393" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C393" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A394" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B394" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C394" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A395" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B395" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C395" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A396" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B396" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C396" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A397" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A398" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C398" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A399" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C399" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A400" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B400" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C400" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A401" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B401" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C401" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A402" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B402" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C402" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A403" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B403" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A404" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B404" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C404" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A405" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B405" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C405" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A406" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B406" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C406" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A407" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A408" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B408" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C408" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A409" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B409" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C409" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A410" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B410" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C410" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A411" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B411" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C411" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A412" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B412" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C412" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A413" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B413" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A414" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B414" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C414" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A415" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B415" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A416" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B416" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C416" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A417" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B417" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C417" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A418" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B418" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C418" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A419" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B419" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A420" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B420" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C420" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A421" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B421" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C421" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A422" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B422" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C422" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A423" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B423" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C423" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A424" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B424" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C424" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A425" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B425" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C425" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A426" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B426" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C426" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A427" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B427" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C427" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A428" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B428" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C428" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A429" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B429" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A430" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B430" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C430" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A431" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B431" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C431" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A432" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B432" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C432" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A433" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B433" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C433" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A434" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B434" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C434" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A435" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B435" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C435" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A436" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B436" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C436" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
